--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42484843254391</v>
+        <v>19.4248484325439</v>
       </c>
       <c r="C3">
-        <v>17.71454277914881</v>
+        <v>17.71454277914887</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.10959860407284</v>
+        <v>18.10959860407281</v>
       </c>
       <c r="F3">
-        <v>37.4000399650245</v>
+        <v>37.40003996502445</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.13577591821109</v>
+        <v>23.13577591821108</v>
       </c>
       <c r="I3">
-        <v>12.17092625073825</v>
+        <v>12.17092625073827</v>
       </c>
       <c r="J3">
-        <v>18.53639753401625</v>
+        <v>18.53639753401628</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46271860793485</v>
+        <v>18.46271860793482</v>
       </c>
       <c r="C4">
-        <v>16.81040952834779</v>
+        <v>16.81040952834784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.27871832638148</v>
+        <v>17.27871832638149</v>
       </c>
       <c r="F4">
-        <v>35.56610955414535</v>
+        <v>35.56610955414528</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.5654200922126</v>
+        <v>22.56542009221251</v>
       </c>
       <c r="I4">
-        <v>11.86573868085573</v>
+        <v>11.86573868085568</v>
       </c>
       <c r="J4">
-        <v>17.62985372448168</v>
+        <v>17.62985372448165</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.05915760619901</v>
+        <v>18.05915760619897</v>
       </c>
       <c r="C5">
         <v>16.43188930097265</v>
@@ -535,22 +535,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.931040648637</v>
+        <v>16.9310406486371</v>
       </c>
       <c r="F5">
-        <v>34.83322406988266</v>
+        <v>34.83322406988265</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.33641369599285</v>
+        <v>22.3364136959929</v>
       </c>
       <c r="I5">
-        <v>11.74359821281468</v>
+        <v>11.7435982128147</v>
       </c>
       <c r="J5">
-        <v>17.24990758640536</v>
+        <v>17.24990758640533</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99144585361889</v>
+        <v>17.99144585361884</v>
       </c>
       <c r="C6">
-        <v>16.3684198198324</v>
+        <v>16.36841981983235</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.87275538751314</v>
+        <v>16.87275538751312</v>
       </c>
       <c r="F6">
-        <v>34.71065960952517</v>
+        <v>34.71065960952519</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.29859360198776</v>
+        <v>22.29859360198794</v>
       </c>
       <c r="I6">
-        <v>11.72345005836659</v>
+        <v>11.72345005836668</v>
       </c>
       <c r="J6">
-        <v>17.18617558660632</v>
+        <v>17.18617558660625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45732286933575</v>
+        <v>18.45732286933565</v>
       </c>
       <c r="C7">
-        <v>16.80534583448096</v>
+        <v>16.80534583448104</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.27406643965052</v>
+        <v>17.27406643965056</v>
       </c>
       <c r="F7">
-        <v>35.5562839576866</v>
+        <v>35.55628395768651</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.56231780439643</v>
+        <v>22.56231780439652</v>
       </c>
       <c r="I7">
-        <v>11.86408249836526</v>
+        <v>11.86408249836532</v>
       </c>
       <c r="J7">
-        <v>17.62477254901493</v>
+        <v>17.62477254901487</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.41298294457265</v>
+        <v>20.4129829445727</v>
       </c>
       <c r="C8">
-        <v>18.64567100883581</v>
+        <v>18.64567100883586</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.96567868486548</v>
+        <v>18.96567868486539</v>
       </c>
       <c r="F8">
-        <v>39.33875983574161</v>
+        <v>39.33875983574167</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.75614664244966</v>
+        <v>23.75614664244965</v>
       </c>
       <c r="I8">
-        <v>12.50434863290933</v>
+        <v>12.50434863290932</v>
       </c>
       <c r="J8">
-        <v>19.46847897891651</v>
+        <v>19.46847897891659</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.90640928681056</v>
+        <v>23.90640928681047</v>
       </c>
       <c r="C9">
         <v>21.95960486429938</v>
@@ -687,22 +687,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.01246523362124</v>
+        <v>22.01246523362138</v>
       </c>
       <c r="F9">
-        <v>46.28966074833586</v>
+        <v>46.28966074833581</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26.20951856005376</v>
+        <v>26.20951856005375</v>
       </c>
       <c r="I9">
         <v>13.83594332621082</v>
       </c>
       <c r="J9">
-        <v>22.77210351558583</v>
+        <v>22.77210351558572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.28488612425411</v>
+        <v>26.2848861242541</v>
       </c>
       <c r="C10">
         <v>24.2371861269732</v>
@@ -725,22 +725,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.10375957622213</v>
+        <v>24.10375957622215</v>
       </c>
       <c r="F10">
-        <v>51.09850777182551</v>
+        <v>51.09850777182545</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.09035696888442</v>
+        <v>28.09035696888438</v>
       </c>
       <c r="I10">
-        <v>14.8694130115217</v>
+        <v>14.86941301152168</v>
       </c>
       <c r="J10">
-        <v>25.02898371652214</v>
+        <v>25.02898371652213</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.33137489465544</v>
+        <v>27.33137489465545</v>
       </c>
       <c r="C11">
-        <v>25.24524025343123</v>
+        <v>25.24524025343105</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,19 +766,19 @@
         <v>25.02818513026109</v>
       </c>
       <c r="F11">
-        <v>53.2321341738197</v>
+        <v>53.23213417381969</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.96696383509386</v>
+        <v>28.96696383509372</v>
       </c>
       <c r="I11">
-        <v>15.35465295176053</v>
+        <v>15.35465295176047</v>
       </c>
       <c r="J11">
-        <v>26.0240183731431</v>
+        <v>26.02401837314308</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72307652389348</v>
+        <v>27.72307652389341</v>
       </c>
       <c r="C12">
-        <v>25.62354014377722</v>
+        <v>25.62354014377735</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.37488565744033</v>
+        <v>25.37488565744034</v>
       </c>
       <c r="F12">
-        <v>54.03344310999758</v>
+        <v>54.03344310999761</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.30241781991734</v>
+        <v>29.30241781991748</v>
       </c>
       <c r="I12">
-        <v>15.54094001679168</v>
+        <v>15.54094001679172</v>
       </c>
       <c r="J12">
-        <v>26.39679323501027</v>
+        <v>26.39679323501026</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63891103231898</v>
+        <v>27.63891103231885</v>
       </c>
       <c r="C13">
-        <v>25.5422082393782</v>
+        <v>25.54220823937827</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.30035770532246</v>
+        <v>25.30035770532247</v>
       </c>
       <c r="F13">
-        <v>53.861142586116</v>
+        <v>53.86114258611586</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.23000673784211</v>
+        <v>29.23000673784208</v>
       </c>
       <c r="I13">
-        <v>15.50069997266828</v>
+        <v>15.50069997266824</v>
       </c>
       <c r="J13">
-        <v>26.31667908171217</v>
+        <v>26.31667908171208</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36368892384776</v>
+        <v>27.36368892384766</v>
       </c>
       <c r="C14">
         <v>25.27642809582228</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.05677244021215</v>
+        <v>25.05677244021204</v>
       </c>
       <c r="F14">
-        <v>53.29818446496667</v>
+        <v>53.29818446496656</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.99448834908417</v>
+        <v>28.99448834908416</v>
       </c>
       <c r="I14">
-        <v>15.36992558514947</v>
+        <v>15.36992558514946</v>
       </c>
       <c r="J14">
-        <v>26.05476408186902</v>
+        <v>26.05476408186896</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.19452786659924</v>
+        <v>27.19452786659923</v>
       </c>
       <c r="C15">
-        <v>25.11320327379042</v>
+        <v>25.11320327379043</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.90714877423343</v>
+        <v>24.90714877423339</v>
       </c>
       <c r="F15">
-        <v>52.9525270837749</v>
+        <v>52.95252708377483</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.85069947375604</v>
+        <v>28.85069947375605</v>
       </c>
       <c r="I15">
         <v>15.29016553092776</v>
       </c>
       <c r="J15">
-        <v>25.89382677877371</v>
+        <v>25.89382677877369</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.21582419133323</v>
+        <v>26.21582419133327</v>
       </c>
       <c r="C16">
-        <v>24.17079257547785</v>
+        <v>24.17079257547777</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.04284611942263</v>
+        <v>24.04284611942277</v>
       </c>
       <c r="F16">
-        <v>50.95807463639007</v>
+        <v>50.95807463639004</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.03352912941182</v>
+        <v>28.03352912941167</v>
       </c>
       <c r="I16">
-        <v>14.83803432040592</v>
+        <v>14.83803432040588</v>
       </c>
       <c r="J16">
-        <v>24.96336228085865</v>
+        <v>24.96336228085867</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.60667676522797</v>
+        <v>25.60667676522799</v>
       </c>
       <c r="C17">
-        <v>23.58587259408785</v>
+        <v>23.58587259408786</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.50606532507779</v>
+        <v>23.50606532507777</v>
       </c>
       <c r="F17">
         <v>49.72144891403673</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.53789863384341</v>
+        <v>27.53789863384342</v>
       </c>
       <c r="I17">
-        <v>14.56476435928362</v>
+        <v>14.56476435928364</v>
       </c>
       <c r="J17">
-        <v>24.38479787787092</v>
+        <v>24.38479787787093</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2529347888478</v>
+        <v>25.25293478884779</v>
       </c>
       <c r="C18">
-        <v>23.24676243674372</v>
+        <v>23.24676243674373</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.19475418923998</v>
+        <v>23.19475418924001</v>
       </c>
       <c r="F18">
         <v>49.00501917295595</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.25476526291396</v>
+        <v>27.25476526291404</v>
       </c>
       <c r="I18">
-        <v>14.40898157060451</v>
+        <v>14.40898157060456</v>
       </c>
       <c r="J18">
-        <v>24.04900953252019</v>
+        <v>24.04900953252023</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13256934162127</v>
+        <v>25.13256934162133</v>
       </c>
       <c r="C19">
-        <v>23.13146860186254</v>
+        <v>23.13146860186261</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.08889430352313</v>
+        <v>23.08889430352311</v>
       </c>
       <c r="F19">
         <v>48.76153261730716</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.15922207759199</v>
+        <v>27.15922207759193</v>
       </c>
       <c r="I19">
-        <v>14.35646628922383</v>
+        <v>14.35646628922381</v>
       </c>
       <c r="J19">
-        <v>23.93478520100155</v>
+        <v>23.93478520100165</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.67186748482779</v>
+        <v>25.67186748482784</v>
       </c>
       <c r="C20">
         <v>23.64841161938735</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.56346904133947</v>
+        <v>23.56346904133941</v>
       </c>
       <c r="F20">
-        <v>49.85361604709313</v>
+        <v>49.85361604709318</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.59045552435498</v>
+        <v>27.59045552435501</v>
       </c>
       <c r="I20">
-        <v>14.59370773423166</v>
+        <v>14.59370773423169</v>
       </c>
       <c r="J20">
-        <v>24.44669539434654</v>
+        <v>24.44669539434661</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44464804971675</v>
+        <v>27.44464804971684</v>
       </c>
       <c r="C21">
-        <v>25.35458188580442</v>
+        <v>25.35458188580438</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.12840594772011</v>
+        <v>25.12840594772018</v>
       </c>
       <c r="F21">
-        <v>53.46370943603815</v>
+        <v>53.46370943603824</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.06356616976035</v>
+        <v>29.06356616976037</v>
       </c>
       <c r="I21">
-        <v>15.40826490125948</v>
+        <v>15.40826490125949</v>
       </c>
       <c r="J21">
-        <v>26.13179941432125</v>
+        <v>26.13179941432126</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57687178189145</v>
+        <v>28.57687178189136</v>
       </c>
       <c r="C22">
-        <v>26.45004068785925</v>
+        <v>26.45004068785917</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.13191438407565</v>
+        <v>26.13191438407567</v>
       </c>
       <c r="F22">
-        <v>55.78504091090516</v>
+        <v>55.78504091090508</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.04708119828501</v>
+        <v>30.04708119828499</v>
       </c>
       <c r="I22">
-        <v>15.95566438493234</v>
+        <v>15.95566438493232</v>
       </c>
       <c r="J22">
-        <v>27.209976010999</v>
+        <v>27.20997601099893</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97480059651608</v>
+        <v>27.9748005965161</v>
       </c>
       <c r="C23">
-        <v>25.86694126250823</v>
+        <v>25.86694126250821</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.59789040544689</v>
+        <v>25.5978904054468</v>
       </c>
       <c r="F23">
-        <v>54.54916018470591</v>
+        <v>54.5491601847059</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.52006134410637</v>
+        <v>29.52006134410636</v>
       </c>
       <c r="I23">
-        <v>15.66198156016614</v>
+        <v>15.66198156016613</v>
       </c>
       <c r="J23">
-        <v>26.63645138393766</v>
+        <v>26.63645138393768</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.64240580939309</v>
+        <v>25.64240580939315</v>
       </c>
       <c r="C24">
-        <v>23.6201465904827</v>
+        <v>23.62014659048267</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.53752529511968</v>
+        <v>23.53752529511959</v>
       </c>
       <c r="F24">
-        <v>49.79388042677232</v>
+        <v>49.79388042677245</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.56668894694101</v>
+        <v>27.56668894694112</v>
       </c>
       <c r="I24">
-        <v>14.58061833713364</v>
+        <v>14.5806183371337</v>
       </c>
       <c r="J24">
-        <v>24.41872142044703</v>
+        <v>24.41872142044702</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99599230838013</v>
+        <v>22.99599230838017</v>
       </c>
       <c r="C25">
         <v>21.09251805866782</v>
@@ -1295,22 +1295,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.21554598030415</v>
+        <v>21.21554598030409</v>
       </c>
       <c r="F25">
-        <v>44.46466489065051</v>
+        <v>44.46466489065056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25.53305146546543</v>
+        <v>25.5330514654655</v>
       </c>
       <c r="I25">
-        <v>13.46684797520181</v>
+        <v>13.46684797520185</v>
       </c>
       <c r="J25">
-        <v>21.90988630771275</v>
+        <v>21.90988630771278</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.4248484325439</v>
+        <v>19.42484843254391</v>
       </c>
       <c r="C3">
-        <v>17.71454277914887</v>
+        <v>17.71454277914881</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.10959860407281</v>
+        <v>18.10959860407284</v>
       </c>
       <c r="F3">
-        <v>37.40003996502445</v>
+        <v>37.4000399650245</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23.13577591821108</v>
+        <v>23.13577591821109</v>
       </c>
       <c r="I3">
-        <v>12.17092625073827</v>
+        <v>12.17092625073825</v>
       </c>
       <c r="J3">
-        <v>18.53639753401628</v>
+        <v>18.53639753401625</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46271860793482</v>
+        <v>18.46271860793485</v>
       </c>
       <c r="C4">
-        <v>16.81040952834784</v>
+        <v>16.81040952834779</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.27871832638149</v>
+        <v>17.27871832638148</v>
       </c>
       <c r="F4">
-        <v>35.56610955414528</v>
+        <v>35.56610955414535</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.56542009221251</v>
+        <v>22.5654200922126</v>
       </c>
       <c r="I4">
-        <v>11.86573868085568</v>
+        <v>11.86573868085573</v>
       </c>
       <c r="J4">
-        <v>17.62985372448165</v>
+        <v>17.62985372448168</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.05915760619897</v>
+        <v>18.05915760619901</v>
       </c>
       <c r="C5">
         <v>16.43188930097265</v>
@@ -535,22 +535,22 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.9310406486371</v>
+        <v>16.931040648637</v>
       </c>
       <c r="F5">
-        <v>34.83322406988265</v>
+        <v>34.83322406988266</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22.3364136959929</v>
+        <v>22.33641369599285</v>
       </c>
       <c r="I5">
-        <v>11.7435982128147</v>
+        <v>11.74359821281468</v>
       </c>
       <c r="J5">
-        <v>17.24990758640533</v>
+        <v>17.24990758640536</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99144585361884</v>
+        <v>17.99144585361889</v>
       </c>
       <c r="C6">
-        <v>16.36841981983235</v>
+        <v>16.3684198198324</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.87275538751312</v>
+        <v>16.87275538751314</v>
       </c>
       <c r="F6">
-        <v>34.71065960952519</v>
+        <v>34.71065960952517</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>22.29859360198794</v>
+        <v>22.29859360198776</v>
       </c>
       <c r="I6">
-        <v>11.72345005836668</v>
+        <v>11.72345005836659</v>
       </c>
       <c r="J6">
-        <v>17.18617558660625</v>
+        <v>17.18617558660632</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45732286933565</v>
+        <v>18.45732286933575</v>
       </c>
       <c r="C7">
-        <v>16.80534583448104</v>
+        <v>16.80534583448096</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.27406643965056</v>
+        <v>17.27406643965052</v>
       </c>
       <c r="F7">
-        <v>35.55628395768651</v>
+        <v>35.5562839576866</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.56231780439652</v>
+        <v>22.56231780439643</v>
       </c>
       <c r="I7">
-        <v>11.86408249836532</v>
+        <v>11.86408249836526</v>
       </c>
       <c r="J7">
-        <v>17.62477254901487</v>
+        <v>17.62477254901493</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.4129829445727</v>
+        <v>20.41298294457265</v>
       </c>
       <c r="C8">
-        <v>18.64567100883586</v>
+        <v>18.64567100883581</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.96567868486539</v>
+        <v>18.96567868486548</v>
       </c>
       <c r="F8">
-        <v>39.33875983574167</v>
+        <v>39.33875983574161</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.75614664244965</v>
+        <v>23.75614664244966</v>
       </c>
       <c r="I8">
-        <v>12.50434863290932</v>
+        <v>12.50434863290933</v>
       </c>
       <c r="J8">
-        <v>19.46847897891659</v>
+        <v>19.46847897891651</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.90640928681047</v>
+        <v>23.90640928681056</v>
       </c>
       <c r="C9">
         <v>21.95960486429938</v>
@@ -687,22 +687,22 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.01246523362138</v>
+        <v>22.01246523362124</v>
       </c>
       <c r="F9">
-        <v>46.28966074833581</v>
+        <v>46.28966074833586</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26.20951856005375</v>
+        <v>26.20951856005376</v>
       </c>
       <c r="I9">
         <v>13.83594332621082</v>
       </c>
       <c r="J9">
-        <v>22.77210351558572</v>
+        <v>22.77210351558583</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.2848861242541</v>
+        <v>26.28488612425411</v>
       </c>
       <c r="C10">
         <v>24.2371861269732</v>
@@ -725,22 +725,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.10375957622215</v>
+        <v>24.10375957622213</v>
       </c>
       <c r="F10">
-        <v>51.09850777182545</v>
+        <v>51.09850777182551</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28.09035696888438</v>
+        <v>28.09035696888442</v>
       </c>
       <c r="I10">
-        <v>14.86941301152168</v>
+        <v>14.8694130115217</v>
       </c>
       <c r="J10">
-        <v>25.02898371652213</v>
+        <v>25.02898371652214</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.33137489465545</v>
+        <v>27.33137489465544</v>
       </c>
       <c r="C11">
-        <v>25.24524025343105</v>
+        <v>25.24524025343123</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,19 +766,19 @@
         <v>25.02818513026109</v>
       </c>
       <c r="F11">
-        <v>53.23213417381969</v>
+        <v>53.2321341738197</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.96696383509372</v>
+        <v>28.96696383509386</v>
       </c>
       <c r="I11">
-        <v>15.35465295176047</v>
+        <v>15.35465295176053</v>
       </c>
       <c r="J11">
-        <v>26.02401837314308</v>
+        <v>26.0240183731431</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72307652389341</v>
+        <v>27.72307652389348</v>
       </c>
       <c r="C12">
-        <v>25.62354014377735</v>
+        <v>25.62354014377722</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.37488565744034</v>
+        <v>25.37488565744033</v>
       </c>
       <c r="F12">
-        <v>54.03344310999761</v>
+        <v>54.03344310999758</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.30241781991748</v>
+        <v>29.30241781991734</v>
       </c>
       <c r="I12">
-        <v>15.54094001679172</v>
+        <v>15.54094001679168</v>
       </c>
       <c r="J12">
-        <v>26.39679323501026</v>
+        <v>26.39679323501027</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63891103231885</v>
+        <v>27.63891103231898</v>
       </c>
       <c r="C13">
-        <v>25.54220823937827</v>
+        <v>25.5422082393782</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.30035770532247</v>
+        <v>25.30035770532246</v>
       </c>
       <c r="F13">
-        <v>53.86114258611586</v>
+        <v>53.861142586116</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>29.23000673784208</v>
+        <v>29.23000673784211</v>
       </c>
       <c r="I13">
-        <v>15.50069997266824</v>
+        <v>15.50069997266828</v>
       </c>
       <c r="J13">
-        <v>26.31667908171208</v>
+        <v>26.31667908171217</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36368892384766</v>
+        <v>27.36368892384776</v>
       </c>
       <c r="C14">
         <v>25.27642809582228</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.05677244021204</v>
+        <v>25.05677244021215</v>
       </c>
       <c r="F14">
-        <v>53.29818446496656</v>
+        <v>53.29818446496667</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.99448834908416</v>
+        <v>28.99448834908417</v>
       </c>
       <c r="I14">
-        <v>15.36992558514946</v>
+        <v>15.36992558514947</v>
       </c>
       <c r="J14">
-        <v>26.05476408186896</v>
+        <v>26.05476408186902</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.19452786659923</v>
+        <v>27.19452786659924</v>
       </c>
       <c r="C15">
-        <v>25.11320327379043</v>
+        <v>25.11320327379042</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.90714877423339</v>
+        <v>24.90714877423343</v>
       </c>
       <c r="F15">
-        <v>52.95252708377483</v>
+        <v>52.9525270837749</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.85069947375605</v>
+        <v>28.85069947375604</v>
       </c>
       <c r="I15">
         <v>15.29016553092776</v>
       </c>
       <c r="J15">
-        <v>25.89382677877369</v>
+        <v>25.89382677877371</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.21582419133327</v>
+        <v>26.21582419133323</v>
       </c>
       <c r="C16">
-        <v>24.17079257547777</v>
+        <v>24.17079257547785</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.04284611942277</v>
+        <v>24.04284611942263</v>
       </c>
       <c r="F16">
-        <v>50.95807463639004</v>
+        <v>50.95807463639007</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28.03352912941167</v>
+        <v>28.03352912941182</v>
       </c>
       <c r="I16">
-        <v>14.83803432040588</v>
+        <v>14.83803432040592</v>
       </c>
       <c r="J16">
-        <v>24.96336228085867</v>
+        <v>24.96336228085865</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.60667676522799</v>
+        <v>25.60667676522797</v>
       </c>
       <c r="C17">
-        <v>23.58587259408786</v>
+        <v>23.58587259408785</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.50606532507777</v>
+        <v>23.50606532507779</v>
       </c>
       <c r="F17">
         <v>49.72144891403673</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27.53789863384342</v>
+        <v>27.53789863384341</v>
       </c>
       <c r="I17">
-        <v>14.56476435928364</v>
+        <v>14.56476435928362</v>
       </c>
       <c r="J17">
-        <v>24.38479787787093</v>
+        <v>24.38479787787092</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25293478884779</v>
+        <v>25.2529347888478</v>
       </c>
       <c r="C18">
-        <v>23.24676243674373</v>
+        <v>23.24676243674372</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.19475418924001</v>
+        <v>23.19475418923998</v>
       </c>
       <c r="F18">
         <v>49.00501917295595</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27.25476526291404</v>
+        <v>27.25476526291396</v>
       </c>
       <c r="I18">
-        <v>14.40898157060456</v>
+        <v>14.40898157060451</v>
       </c>
       <c r="J18">
-        <v>24.04900953252023</v>
+        <v>24.04900953252019</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13256934162133</v>
+        <v>25.13256934162127</v>
       </c>
       <c r="C19">
-        <v>23.13146860186261</v>
+        <v>23.13146860186254</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.08889430352311</v>
+        <v>23.08889430352313</v>
       </c>
       <c r="F19">
         <v>48.76153261730716</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27.15922207759193</v>
+        <v>27.15922207759199</v>
       </c>
       <c r="I19">
-        <v>14.35646628922381</v>
+        <v>14.35646628922383</v>
       </c>
       <c r="J19">
-        <v>23.93478520100165</v>
+        <v>23.93478520100155</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.67186748482784</v>
+        <v>25.67186748482779</v>
       </c>
       <c r="C20">
         <v>23.64841161938735</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.56346904133941</v>
+        <v>23.56346904133947</v>
       </c>
       <c r="F20">
-        <v>49.85361604709318</v>
+        <v>49.85361604709313</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27.59045552435501</v>
+        <v>27.59045552435498</v>
       </c>
       <c r="I20">
-        <v>14.59370773423169</v>
+        <v>14.59370773423166</v>
       </c>
       <c r="J20">
-        <v>24.44669539434661</v>
+        <v>24.44669539434654</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44464804971684</v>
+        <v>27.44464804971675</v>
       </c>
       <c r="C21">
-        <v>25.35458188580438</v>
+        <v>25.35458188580442</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.12840594772018</v>
+        <v>25.12840594772011</v>
       </c>
       <c r="F21">
-        <v>53.46370943603824</v>
+        <v>53.46370943603815</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29.06356616976037</v>
+        <v>29.06356616976035</v>
       </c>
       <c r="I21">
-        <v>15.40826490125949</v>
+        <v>15.40826490125948</v>
       </c>
       <c r="J21">
-        <v>26.13179941432126</v>
+        <v>26.13179941432125</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57687178189136</v>
+        <v>28.57687178189145</v>
       </c>
       <c r="C22">
-        <v>26.45004068785917</v>
+        <v>26.45004068785925</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.13191438407567</v>
+        <v>26.13191438407565</v>
       </c>
       <c r="F22">
-        <v>55.78504091090508</v>
+        <v>55.78504091090516</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.04708119828499</v>
+        <v>30.04708119828501</v>
       </c>
       <c r="I22">
-        <v>15.95566438493232</v>
+        <v>15.95566438493234</v>
       </c>
       <c r="J22">
-        <v>27.20997601099893</v>
+        <v>27.209976010999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.9748005965161</v>
+        <v>27.97480059651608</v>
       </c>
       <c r="C23">
-        <v>25.86694126250821</v>
+        <v>25.86694126250823</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.5978904054468</v>
+        <v>25.59789040544689</v>
       </c>
       <c r="F23">
-        <v>54.5491601847059</v>
+        <v>54.54916018470591</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.52006134410636</v>
+        <v>29.52006134410637</v>
       </c>
       <c r="I23">
-        <v>15.66198156016613</v>
+        <v>15.66198156016614</v>
       </c>
       <c r="J23">
-        <v>26.63645138393768</v>
+        <v>26.63645138393766</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.64240580939315</v>
+        <v>25.64240580939309</v>
       </c>
       <c r="C24">
-        <v>23.62014659048267</v>
+        <v>23.6201465904827</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.53752529511959</v>
+        <v>23.53752529511968</v>
       </c>
       <c r="F24">
-        <v>49.79388042677245</v>
+        <v>49.79388042677232</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27.56668894694112</v>
+        <v>27.56668894694101</v>
       </c>
       <c r="I24">
-        <v>14.5806183371337</v>
+        <v>14.58061833713364</v>
       </c>
       <c r="J24">
-        <v>24.41872142044702</v>
+        <v>24.41872142044703</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99599230838017</v>
+        <v>22.99599230838013</v>
       </c>
       <c r="C25">
         <v>21.09251805866782</v>
@@ -1295,22 +1295,22 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.21554598030409</v>
+        <v>21.21554598030415</v>
       </c>
       <c r="F25">
-        <v>44.46466489065056</v>
+        <v>44.46466489065051</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25.5330514654655</v>
+        <v>25.53305146546543</v>
       </c>
       <c r="I25">
-        <v>13.46684797520185</v>
+        <v>13.46684797520181</v>
       </c>
       <c r="J25">
-        <v>21.90988630771278</v>
+        <v>21.90988630771275</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91908719169177</v>
+        <v>20.79213590105816</v>
       </c>
       <c r="C2">
-        <v>19.12360746347335</v>
+        <v>18.98039820309344</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.40516820170992</v>
+        <v>19.48347194742189</v>
       </c>
       <c r="F2">
-        <v>40.3367116871724</v>
+        <v>40.26957280339328</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.05340079947379</v>
       </c>
       <c r="H2">
-        <v>24.08699801258446</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.68274898053542</v>
+        <v>24.27649142364504</v>
       </c>
       <c r="J2">
-        <v>19.94627736440076</v>
+        <v>12.77084208543914</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.80008933911616</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42484843254391</v>
+        <v>19.30283195846427</v>
       </c>
       <c r="C3">
-        <v>17.71454277914881</v>
+        <v>17.57889858305747</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.10959860407284</v>
+        <v>18.19200619144001</v>
       </c>
       <c r="F3">
-        <v>37.4000399650245</v>
+        <v>37.34519157560857</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.066049566212114</v>
       </c>
       <c r="H3">
-        <v>23.13577591821109</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.17092625073825</v>
+        <v>23.35242269568688</v>
       </c>
       <c r="J3">
-        <v>18.53639753401625</v>
+        <v>12.27607341316391</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.39386487173837</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46271860793485</v>
+        <v>18.34379162994971</v>
       </c>
       <c r="C4">
-        <v>16.81040952834779</v>
+        <v>16.67965884946518</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.27871832638148</v>
+        <v>17.36395648877254</v>
       </c>
       <c r="F4">
-        <v>35.56610955414535</v>
+        <v>35.55239351975101</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.073932369004261</v>
       </c>
       <c r="H4">
-        <v>22.5654200922126</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.86573868085573</v>
+        <v>22.79958940131942</v>
       </c>
       <c r="J4">
-        <v>17.62985372448168</v>
+        <v>11.98185299851549</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.48947060526409</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.05915760619901</v>
+        <v>17.94150718450642</v>
       </c>
       <c r="C5">
-        <v>16.43188930097265</v>
+        <v>16.30320282692674</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.931040648637</v>
+        <v>17.01751872736669</v>
       </c>
       <c r="F5">
-        <v>34.83322406988266</v>
+        <v>34.82370367100283</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.077178391609336</v>
       </c>
       <c r="H5">
-        <v>22.33641369599285</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.74359821281468</v>
+        <v>22.57792270875551</v>
       </c>
       <c r="J5">
-        <v>17.24990758640536</v>
+        <v>11.86429764265766</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.11037573389234</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99144585361889</v>
+        <v>17.87400853066376</v>
       </c>
       <c r="C6">
-        <v>16.3684198198324</v>
+        <v>16.24008056693033</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.87275538751314</v>
+        <v>16.95944483398942</v>
       </c>
       <c r="F6">
-        <v>34.71065960952517</v>
+        <v>34.70185018234422</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.077719549244172</v>
       </c>
       <c r="H6">
-        <v>22.29859360198776</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.72345005836659</v>
+        <v>22.54133289327198</v>
       </c>
       <c r="J6">
-        <v>17.18617558660632</v>
+        <v>11.84491754108442</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.04678354572226</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45732286933575</v>
+        <v>18.33841303324229</v>
       </c>
       <c r="C7">
-        <v>16.80534583448096</v>
+        <v>16.67462270020803</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.27406643965052</v>
+        <v>17.35932096240648</v>
       </c>
       <c r="F7">
-        <v>35.5562839576866</v>
+        <v>35.54262356220094</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.073976003926106</v>
       </c>
       <c r="H7">
-        <v>22.56231780439643</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.86408249836526</v>
+        <v>22.79658531515958</v>
       </c>
       <c r="J7">
-        <v>17.62477254901493</v>
+        <v>11.98025819647877</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.48440101228513</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.41298294457265</v>
+        <v>20.28772255292048</v>
       </c>
       <c r="C8">
-        <v>18.64567100883581</v>
+        <v>18.50502304162217</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.96567868486548</v>
+        <v>19.04533765292361</v>
       </c>
       <c r="F8">
-        <v>39.33875983574161</v>
+        <v>39.27574058776492</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.057740754760844</v>
       </c>
       <c r="H8">
-        <v>23.75614664244966</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.50434863290933</v>
+        <v>23.95481844850031</v>
       </c>
       <c r="J8">
-        <v>19.46847897891651</v>
+        <v>12.59821453559015</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.323570902972</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.90640928681056</v>
+        <v>23.76902037189918</v>
       </c>
       <c r="C9">
-        <v>21.95960486429938</v>
+        <v>21.80113693288439</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.01246523362124</v>
+        <v>22.08328401859995</v>
       </c>
       <c r="F9">
-        <v>46.28966074833586</v>
+        <v>46.19867346322873</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.026599275292468</v>
       </c>
       <c r="H9">
-        <v>26.20951856005376</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>13.83594332621082</v>
+        <v>26.34557036166972</v>
       </c>
       <c r="J9">
-        <v>22.77210351558583</v>
+        <v>13.89024661965662</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.6175161853732</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.28488612425411</v>
+        <v>26.13852207180325</v>
       </c>
       <c r="C10">
-        <v>24.2371861269732</v>
+        <v>24.06615081667824</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.10375957622213</v>
+        <v>24.16894798854429</v>
       </c>
       <c r="F10">
-        <v>51.09850777182551</v>
+        <v>50.98848838203984</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.003775224364678</v>
       </c>
       <c r="H10">
-        <v>28.09035696888442</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.8694130115217</v>
+        <v>28.18504452176885</v>
       </c>
       <c r="J10">
-        <v>25.02898371652214</v>
+        <v>14.89732676927431</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.86666474710177</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.33137489465544</v>
+        <v>27.18083376772909</v>
       </c>
       <c r="C11">
-        <v>25.24524025343123</v>
+        <v>25.06848051707663</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.02818513026109</v>
+        <v>25.09090223115613</v>
       </c>
       <c r="F11">
-        <v>53.2321341738197</v>
+        <v>53.11354988012577</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.993303873873961</v>
       </c>
       <c r="H11">
-        <v>28.96696383509386</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>15.35465295176053</v>
+        <v>29.04380044561625</v>
       </c>
       <c r="J11">
-        <v>26.0240183731431</v>
+        <v>15.37110302897448</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.85798408918853</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72307652389348</v>
+        <v>27.57093117759496</v>
       </c>
       <c r="C12">
-        <v>25.62354014377722</v>
+        <v>25.44459925839437</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.37488565744033</v>
+        <v>25.43667061089641</v>
       </c>
       <c r="F12">
-        <v>54.03344310999758</v>
+        <v>53.91160614513198</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.989315751328479</v>
       </c>
       <c r="H12">
-        <v>29.30241781991734</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>15.54094001679168</v>
+        <v>29.37262328287567</v>
       </c>
       <c r="J12">
-        <v>26.39679323501027</v>
+        <v>15.5531187465669</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.22931559289574</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.63891103231898</v>
+        <v>27.48711234888316</v>
       </c>
       <c r="C13">
-        <v>25.5422082393782</v>
+        <v>25.36373792603807</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.30035770532246</v>
+        <v>25.36234341369844</v>
       </c>
       <c r="F13">
-        <v>53.861142586116</v>
+        <v>53.7400069609341</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.990175861987324</v>
       </c>
       <c r="H13">
-        <v>29.23000673784211</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>15.50069997266828</v>
+        <v>29.30163484199393</v>
       </c>
       <c r="J13">
-        <v>26.31667908171217</v>
+        <v>15.51379568715067</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.14951406860949</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.36368892384776</v>
+        <v>27.21301632609052</v>
       </c>
       <c r="C14">
-        <v>25.27642809582228</v>
+        <v>25.09948926434611</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.05677244021215</v>
+        <v>25.11941283743431</v>
       </c>
       <c r="F14">
-        <v>53.29818446496667</v>
+        <v>53.179332902924</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.992976291047786</v>
       </c>
       <c r="H14">
-        <v>28.99448834908417</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>15.36992558514947</v>
+        <v>29.07077691271579</v>
       </c>
       <c r="J14">
-        <v>26.05476408186902</v>
+        <v>15.38602292031523</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.88861183735142</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.19452786659924</v>
+        <v>27.04454180145309</v>
       </c>
       <c r="C15">
-        <v>25.11320327379042</v>
+        <v>24.93720035903756</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.90714877423343</v>
+        <v>24.97019036665573</v>
       </c>
       <c r="F15">
-        <v>52.9525270837749</v>
+        <v>52.83507262249867</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.994688327804606</v>
       </c>
       <c r="H15">
-        <v>28.85069947375604</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>15.29016553092776</v>
+        <v>28.92985905074199</v>
       </c>
       <c r="J15">
-        <v>25.89382677877371</v>
+        <v>15.30811021164894</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.72828985722506</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.21582419133323</v>
+        <v>26.06973051372634</v>
       </c>
       <c r="C16">
-        <v>24.17079257547785</v>
+        <v>24.00013021898863</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.04284611942263</v>
+        <v>24.10819708956394</v>
       </c>
       <c r="F16">
-        <v>50.95807463639007</v>
+        <v>50.84861499612091</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.004456945146964</v>
       </c>
       <c r="H16">
-        <v>28.03352912941182</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.83803432040592</v>
+        <v>28.12940196868741</v>
       </c>
       <c r="J16">
-        <v>24.96336228085865</v>
+        <v>14.86670754315897</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.80128150553951</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.60667676522797</v>
+        <v>25.46294114703628</v>
       </c>
       <c r="C17">
-        <v>23.58587259408785</v>
+        <v>23.41847653505572</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.50606532507779</v>
+        <v>23.57284990853256</v>
       </c>
       <c r="F17">
-        <v>49.72144891403673</v>
+        <v>49.61690258354771</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.010420336773841</v>
       </c>
       <c r="H17">
-        <v>27.53789863384341</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.56476435928362</v>
+        <v>27.64426633949748</v>
       </c>
       <c r="J17">
-        <v>24.38479787787092</v>
+        <v>14.6001532596617</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.22478169179877</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2529347888478</v>
+        <v>25.11054724025618</v>
       </c>
       <c r="C18">
-        <v>23.24676243674372</v>
+        <v>23.08124522338611</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.19475418923998</v>
+        <v>23.26237243495182</v>
       </c>
       <c r="F18">
-        <v>49.00501917295595</v>
+        <v>48.90330911876056</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.013842684276237</v>
       </c>
       <c r="H18">
-        <v>27.25476526291396</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.40898157060451</v>
+        <v>27.36726119175191</v>
       </c>
       <c r="J18">
-        <v>24.04900953252019</v>
+        <v>14.4482847938058</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.8901628016035</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13256934162127</v>
+        <v>24.99063704978434</v>
       </c>
       <c r="C19">
-        <v>23.13146860186254</v>
+        <v>22.96658789822304</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.08889430352313</v>
+        <v>23.15679663311216</v>
       </c>
       <c r="F19">
-        <v>48.76153261730716</v>
+        <v>48.66078527535743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.015000400444503</v>
       </c>
       <c r="H19">
-        <v>27.15922207759199</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.35646628922383</v>
+        <v>27.27380891587685</v>
       </c>
       <c r="J19">
-        <v>23.93478520100155</v>
+        <v>14.39710388651086</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.77633153126987</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.67186748482779</v>
+        <v>25.52788175573767</v>
       </c>
       <c r="C20">
-        <v>23.64841161938735</v>
+        <v>23.48066792278457</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.56346904133947</v>
+        <v>23.63010013634337</v>
       </c>
       <c r="F20">
-        <v>49.85361604709313</v>
+        <v>49.74854577611438</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.009786381644302</v>
       </c>
       <c r="H20">
-        <v>27.59045552435498</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.59370773423166</v>
+        <v>27.69569658366733</v>
       </c>
       <c r="J20">
-        <v>24.44669539434654</v>
+        <v>14.62837644033344</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.28646134616709</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.44464804971675</v>
+        <v>27.2936453851603</v>
       </c>
       <c r="C21">
-        <v>25.35458188580442</v>
+        <v>25.17719369703111</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.12840594772011</v>
+        <v>25.19085402837494</v>
       </c>
       <c r="F21">
-        <v>53.46370943603815</v>
+        <v>53.34418744273034</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.992154447010869</v>
       </c>
       <c r="H21">
-        <v>29.06356616976035</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>15.40826490125948</v>
+        <v>29.13848246322389</v>
       </c>
       <c r="J21">
-        <v>26.13179941432125</v>
+        <v>15.42347878118533</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.96535076073483</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57687178189145</v>
+        <v>28.42114631871211</v>
       </c>
       <c r="C22">
-        <v>26.45004068785925</v>
+        <v>26.26626315364079</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>26.13191438407565</v>
+        <v>26.19164453833516</v>
       </c>
       <c r="F22">
-        <v>55.78504091090516</v>
+        <v>55.65600580658617</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.980491667981255</v>
       </c>
       <c r="H22">
-        <v>30.04708119828501</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.95566438493234</v>
+        <v>30.10291914513656</v>
       </c>
       <c r="J22">
-        <v>27.209976010999</v>
+        <v>15.95856281079863</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.03924758254848</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97480059651608</v>
+        <v>27.82161188568506</v>
       </c>
       <c r="C23">
-        <v>25.86694126250823</v>
+        <v>25.68658653499666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.59789040544689</v>
+        <v>25.65907320953671</v>
       </c>
       <c r="F23">
-        <v>54.54916018470591</v>
+        <v>54.42521723996465</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.986732901381879</v>
       </c>
       <c r="H23">
-        <v>29.52006134410637</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>15.66198156016614</v>
+        <v>29.58601892491307</v>
       </c>
       <c r="J23">
-        <v>26.63645138393766</v>
+        <v>15.67142022092642</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.46803046125648</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.64240580939309</v>
+        <v>25.49853317851597</v>
       </c>
       <c r="C24">
-        <v>23.6201465904827</v>
+        <v>23.45256005680871</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.53752529511968</v>
+        <v>23.60422575213126</v>
       </c>
       <c r="F24">
-        <v>49.79388042677232</v>
+        <v>49.68904699167767</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.010073010979931</v>
       </c>
       <c r="H24">
-        <v>27.56668894694101</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.58061833713364</v>
+        <v>27.67243906776205</v>
       </c>
       <c r="J24">
-        <v>24.41872142044703</v>
+        <v>14.61561247622705</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.25858592169814</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99599230838013</v>
+        <v>22.86187325257356</v>
       </c>
       <c r="C25">
-        <v>21.09251805866782</v>
+        <v>20.93874200931707</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.21554598030415</v>
+        <v>21.28857312660759</v>
       </c>
       <c r="F25">
-        <v>44.46466489065051</v>
+        <v>44.38090278885332</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.034984210170615</v>
       </c>
       <c r="H25">
-        <v>25.53305146546543</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>13.46684797520181</v>
+        <v>25.68523041356423</v>
       </c>
       <c r="J25">
-        <v>21.90988630771275</v>
+        <v>13.53138153966978</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.75801075862114</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>25.33507753578964</v>
+      </c>
+      <c r="C2">
+        <v>19.11244684788054</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>30.11932066149638</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>2.042708761516451</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>7.167738466927507</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.599815479997741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>23.69022984561108</v>
+      </c>
+      <c r="C3">
+        <v>17.91773564095012</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>27.91631183935277</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.049205852416407</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>7.730247933637084</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>9.606743066686203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>22.62285326792495</v>
+      </c>
+      <c r="C4">
+        <v>17.14465142706771</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>26.50128428327606</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.053283961544148</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>8.086010227850023</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>9.644852324110927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>22.17339649655454</v>
+      </c>
+      <c r="C5">
+        <v>16.81968250810898</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>25.90858862925116</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>2.05496948587285</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>8.233522806974293</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>9.668222373245829</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22.09788814975184</v>
+      </c>
+      <c r="C6">
+        <v>16.76512260563693</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.80919143372646</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>2.055250831660688</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>8.258168960332382</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>9.672556540557681</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.61685046810545</v>
+      </c>
+      <c r="C7">
+        <v>17.1403089630655</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>26.49335649015097</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>2.053306595639723</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>8.087989431373959</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>9.645136656397838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>24.77981859563929</v>
+      </c>
+      <c r="C8">
+        <v>18.70871173219155</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>29.37243297581135</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>2.044931336817768</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7.359479037533072</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.594779363158633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>28.56886432649571</v>
+      </c>
+      <c r="C9">
+        <v>21.47158414238117</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>34.5419690204065</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
+      </c>
+      <c r="G9">
+        <v>2.029147523628687</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6.019797695052128</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>9.792908894217405</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>31.08237003970684</v>
+      </c>
+      <c r="C10">
+        <v>23.31353966964265</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>38.07831692901286</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>2.017840773309916</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5.107926603945972</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10.33487222832098</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>32.16863844869967</v>
+      </c>
+      <c r="C11">
+        <v>24.11166205401527</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>39.63757995694375</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>2.012734443693562</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4.717527353070392</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10.8783561035639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>32.57190507341108</v>
+      </c>
+      <c r="C12">
+        <v>24.40827046586295</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>40.22162393907461</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>2.010803741297967</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4.574546700516507</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11.08554479685251</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>32.48541138473537</v>
+      </c>
+      <c r="C13">
+        <v>24.34463885945678</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>40.09611286342379</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>2.011219462499685</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>4.605094656263907</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>11.04086045918531</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>32.20197652417699</v>
+      </c>
+      <c r="C14">
+        <v>24.13617627212184</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>39.68575386334675</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>2.012575559200176</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>4.705656583816472</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>10.89537357224837</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>32.02731661198654</v>
+      </c>
+      <c r="C15">
+        <v>24.00775785857239</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>39.43358388951393</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309154516</v>
+      </c>
+      <c r="G15">
+        <v>2.013406516262058</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4.767938325199773</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>10.80644048703599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>31.01024140737182</v>
+      </c>
+      <c r="C16">
+        <v>23.26058780657262</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>37.97547785353164</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.6346354302881</v>
+      </c>
+      <c r="G16">
+        <v>2.01817503405655</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5.134030720968733</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>10.29954534291068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>30.37175660215858</v>
+      </c>
+      <c r="C17">
+        <v>22.79209600219551</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>37.06878033190824</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>2.021108272946014</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.365621697627459</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10.03195984466547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>29.99912980399936</v>
+      </c>
+      <c r="C18">
+        <v>22.51887942463559</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>36.54257191173171</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>2.022799051875386</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.501013523032662</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>9.974448210645548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>29.87203560404508</v>
+      </c>
+      <c r="C19">
+        <v>22.42572577705197</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>36.36357986032874</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.1517249415006</v>
+      </c>
+      <c r="G19">
+        <v>2.023372216960172</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5.547200204055249</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>9.955808048348217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>30.44028101704938</v>
+      </c>
+      <c r="C20">
+        <v>22.84235546373031</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>37.16578152228016</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731401</v>
+      </c>
+      <c r="G20">
+        <v>2.020795662521658</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.340734561009945</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>10.04300217915093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>32.28544632275477</v>
+      </c>
+      <c r="C21">
+        <v>24.19755852000486</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>39.80645435273178</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2.012177181091737</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4.675972917544819</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10.93806857227134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>33.4443494024362</v>
+      </c>
+      <c r="C22">
+        <v>25.05054491398028</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>41.49528807388608</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>2.006560389214373</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4.271055512691994</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>11.54374529685854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>32.83007382726911</v>
+      </c>
+      <c r="C23">
+        <v>24.59824612207304</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>40.59705630488013</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>2.009557593325339</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4.483805266105182</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>11.21971673399943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>30.40931843674613</v>
+      </c>
+      <c r="C24">
+        <v>22.81964523629819</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>37.12194270958431</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>2.020936979748146</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.351979126315793</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>10.03799474508227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>27.59175466451495</v>
+      </c>
+      <c r="C25">
+        <v>20.7574258742755</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>33.19168830510539</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.033358706828603</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>6.371417277878547</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>9.703742656803445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.33507753578964</v>
+        <v>14.95417514485077</v>
       </c>
       <c r="C2">
-        <v>19.11244684788054</v>
+        <v>11.38503740958157</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11932066149638</v>
+        <v>16.60989560622437</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.042708761516451</v>
+        <v>3.584089804427038</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.167738466927507</v>
+        <v>15.07788214228017</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.599815479997741</v>
+        <v>15.62271078555588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69022984561108</v>
+        <v>14.09972746306399</v>
       </c>
       <c r="C3">
-        <v>17.91773564095012</v>
+        <v>10.74138352244371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.91631183935277</v>
+        <v>15.65977732696368</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.049205852416407</v>
+        <v>3.586345421855879</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.730247933637084</v>
+        <v>15.27051264362134</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.606743066686203</v>
+        <v>15.76623067272593</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.62285326792495</v>
+        <v>13.54700979990085</v>
       </c>
       <c r="C4">
-        <v>17.14465142706771</v>
+        <v>10.32420638013924</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.50128428327606</v>
+        <v>15.05097772297288</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.053283961544148</v>
+        <v>3.587799831309748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.086010227850023</v>
+        <v>15.39456118671229</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.644852324110927</v>
+        <v>15.8617997034256</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17339649655454</v>
+        <v>13.3148480874249</v>
       </c>
       <c r="C5">
-        <v>16.81968250810898</v>
+        <v>10.14875461013006</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.90858862925116</v>
+        <v>14.79676021549598</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.05496948587285</v>
+        <v>3.588410041314026</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.233522806974293</v>
+        <v>15.44656712586401</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.668222373245829</v>
+        <v>15.90260070925761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09788814975184</v>
+        <v>13.2758841948271</v>
       </c>
       <c r="C6">
-        <v>16.76512260563693</v>
+        <v>10.11929447645399</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.80919143372646</v>
+        <v>14.75418638070411</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.055250831660688</v>
+        <v>3.588512426596147</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.258168960332382</v>
+        <v>15.45529066603848</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.672556540557681</v>
+        <v>15.90948728872328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.61685046810545</v>
+        <v>13.54390662024748</v>
       </c>
       <c r="C7">
-        <v>17.1403089630655</v>
+        <v>10.32186212384934</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.49335649015097</v>
+        <v>15.04757367285683</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.053306595639723</v>
+        <v>3.587807989769907</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.087989431373959</v>
+        <v>15.3952566604473</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.645136656397838</v>
+        <v>15.86234246787765</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77981859563929</v>
+        <v>14.6654632863702</v>
       </c>
       <c r="C8">
-        <v>18.70871173219155</v>
+        <v>11.16770589463535</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.37243297581135</v>
+        <v>16.28771535500158</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.044931336817768</v>
+        <v>3.584853164314834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.359479037533072</v>
+        <v>15.14310517619997</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.594779363158633</v>
+        <v>15.67064055568737</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.56886432649571</v>
+        <v>16.63739350211652</v>
       </c>
       <c r="C9">
-        <v>21.47158414238117</v>
+        <v>12.64956017594646</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.5419690204065</v>
+        <v>18.63158843625158</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.029147523628687</v>
+        <v>3.57960696882296</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.019797695052128</v>
+        <v>14.69427648299733</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.792908894217405</v>
+        <v>15.35457154223684</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08237003970684</v>
+        <v>17.94292611747911</v>
       </c>
       <c r="C10">
-        <v>23.31353966964265</v>
+        <v>13.62804050919103</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.07831692901286</v>
+        <v>20.29044273602282</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.017840773309916</v>
+        <v>3.576082771683159</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.107926603945972</v>
+        <v>14.39211588658997</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.33487222832098</v>
+        <v>15.15991968817342</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.16863844869967</v>
+        <v>18.50512727330458</v>
       </c>
       <c r="C11">
-        <v>24.11166205401527</v>
+        <v>14.04893390274913</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.63757995694375</v>
+        <v>21.00263295508407</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.012734443693562</v>
+        <v>3.574550359053559</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.717527353070392</v>
+        <v>14.26059960730766</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.8783561035639</v>
+        <v>15.07976187252135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.57190507341108</v>
+        <v>18.71342606654253</v>
       </c>
       <c r="C12">
-        <v>24.40827046586295</v>
+        <v>14.20481596942529</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.22162393907461</v>
+        <v>21.26625698460389</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.010803741297967</v>
+        <v>3.573980184237847</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.574546700516507</v>
+        <v>14.21164840560022</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.08554479685251</v>
+        <v>15.05063490433985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.48541138473537</v>
+        <v>18.66877002364902</v>
       </c>
       <c r="C13">
-        <v>24.34463885945678</v>
+        <v>14.1713999134305</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.09611286342379</v>
+        <v>21.20975011417035</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.011219462499685</v>
+        <v>3.574102532584222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.605094656263907</v>
+        <v>14.22215310928772</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.04086045918531</v>
+        <v>15.05685301384862</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.20197652417699</v>
+        <v>18.52235639932158</v>
       </c>
       <c r="C14">
-        <v>24.13617627212184</v>
+        <v>14.06182866356835</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.68575386334675</v>
+        <v>21.02444285614956</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.012575559200176</v>
+        <v>3.574503248013778</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.705656583816472</v>
+        <v>14.25655531917401</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.89537357224837</v>
+        <v>15.07734086846188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02731661198654</v>
+        <v>18.43207454850534</v>
       </c>
       <c r="C15">
-        <v>24.00775785857239</v>
+        <v>13.99425672905252</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.43358388951393</v>
+        <v>20.91014773613494</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.013406516262058</v>
+        <v>3.574750013518217</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.767938325199773</v>
+        <v>14.27773843324543</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.80644048703599</v>
+        <v>15.09005068522104</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.01024140737182</v>
+        <v>17.90554379007511</v>
       </c>
       <c r="C16">
-        <v>23.26058780657262</v>
+        <v>13.60004504165616</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.97547785353164</v>
+        <v>20.24304857140823</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.01817503405655</v>
+        <v>3.576184337327184</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.134030720968733</v>
+        <v>14.40083003788647</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.29954534291068</v>
+        <v>15.16532877267049</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.37175660215858</v>
+        <v>17.57438709643368</v>
       </c>
       <c r="C17">
-        <v>22.79209600219551</v>
+        <v>13.35199021735866</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.06878033190824</v>
+        <v>19.82296192863376</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.021108272946014</v>
+        <v>3.577082330435755</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.365621697627459</v>
+        <v>14.47786165393236</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.03195984466547</v>
+        <v>15.21367290750535</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.99912980399936</v>
+        <v>17.38093297655628</v>
       </c>
       <c r="C18">
-        <v>22.51887942463559</v>
+        <v>13.20703636654496</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.54257191173171</v>
+        <v>19.57734334985946</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.022799051875386</v>
+        <v>3.577605496318012</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.501013523032662</v>
+        <v>14.52272727904176</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.974448210645548</v>
+        <v>15.24226765903491</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.87203560404508</v>
+        <v>17.31492196514286</v>
       </c>
       <c r="C19">
-        <v>22.42572577705197</v>
+        <v>13.15756666726852</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.36357986032874</v>
+        <v>19.49349377146694</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.023372216960172</v>
+        <v>3.577783777642642</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.547200204055249</v>
+        <v>14.5380141160499</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.955808048348217</v>
+        <v>15.25208415274904</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.44028101704938</v>
+        <v>17.60994817440042</v>
       </c>
       <c r="C20">
-        <v>22.84235546373031</v>
+        <v>13.37863212318749</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.16578152228016</v>
+        <v>19.86809417261692</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.020795662521658</v>
+        <v>3.576986048268385</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.340734561009945</v>
+        <v>14.46960366498036</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.04300217915093</v>
+        <v>15.20844483921919</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.28544632275477</v>
+        <v>18.56548657119015</v>
       </c>
       <c r="C21">
-        <v>24.19755852000486</v>
+        <v>14.09410752869517</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.80645435273178</v>
+        <v>21.07903647064006</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.012177181091737</v>
+        <v>3.574385274085989</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.675972917544819</v>
+        <v>14.24642747711277</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.93806857227134</v>
+        <v>15.07128962163519</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.4443494024362</v>
+        <v>19.16319505786531</v>
       </c>
       <c r="C22">
-        <v>25.05054491398028</v>
+        <v>14.54130052123812</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.49528807388608</v>
+        <v>21.83511032318818</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.006560389214373</v>
+        <v>3.57274445784505</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.271055512691994</v>
+        <v>14.10552897022255</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.54374529685854</v>
+        <v>14.98881273761024</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.83007382726911</v>
+        <v>18.84664789177977</v>
       </c>
       <c r="C23">
-        <v>24.59824612207304</v>
+        <v>14.30449729209777</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.59705630488013</v>
+        <v>21.43480236214343</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.009557593325339</v>
+        <v>3.573614818754262</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.483805266105182</v>
+        <v>14.18027617993392</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.21971673399943</v>
+        <v>15.03217001243691</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.40931843674613</v>
+        <v>17.59388056340996</v>
       </c>
       <c r="C24">
-        <v>22.81964523629819</v>
+        <v>13.36659461670327</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.12194270958431</v>
+        <v>19.84770267479086</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.020936979748146</v>
+        <v>3.577029555946285</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.351979126315793</v>
+        <v>14.47333529762623</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.03799474508227</v>
+        <v>15.21080595518124</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59175466451495</v>
+        <v>16.12883122015734</v>
       </c>
       <c r="C25">
-        <v>20.7574258742755</v>
+        <v>12.26790570296586</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.19168830510539</v>
+        <v>17.98284373560391</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.033358706828603</v>
+        <v>3.580967930674202</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.371417277878547</v>
+        <v>14.81083458789333</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.703742656803445</v>
+        <v>15.4335590132769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.95417514485077</v>
+        <v>25.33507753578973</v>
       </c>
       <c r="C2">
-        <v>11.38503740958157</v>
+        <v>19.11244684788051</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.60989560622437</v>
+        <v>30.11932066149643</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.584089804427038</v>
+        <v>2.042708761516451</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.07788214228017</v>
+        <v>7.167738466927316</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.62271078555588</v>
+        <v>9.599815479997613</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.09972746306399</v>
+        <v>23.69022984561115</v>
       </c>
       <c r="C3">
-        <v>10.74138352244371</v>
+        <v>17.91773564095009</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.65977732696368</v>
+        <v>27.91631183935279</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.586345421855879</v>
+        <v>2.049205852416407</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.27051264362134</v>
+        <v>7.730247933636993</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.76623067272593</v>
+        <v>9.606743066686148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.54700979990085</v>
+        <v>22.62285326792498</v>
       </c>
       <c r="C4">
-        <v>10.32420638013924</v>
+        <v>17.14465142706776</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.05097772297288</v>
+        <v>26.501284283276</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.587799831309748</v>
+        <v>2.053283961544146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.39456118671229</v>
+        <v>8.086010227849929</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.8617997034256</v>
+        <v>9.64485232411087</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.3148480874249</v>
+        <v>22.17339649655461</v>
       </c>
       <c r="C5">
-        <v>10.14875461013006</v>
+        <v>16.81968250810904</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.79676021549598</v>
+        <v>25.90858862925111</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.588410041314026</v>
+        <v>2.05496948587285</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.44656712586401</v>
+        <v>8.233522806974033</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.90260070925761</v>
+        <v>9.668222373245637</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.2758841948271</v>
+        <v>22.09788814975183</v>
       </c>
       <c r="C6">
-        <v>10.11929447645399</v>
+        <v>16.76512260563671</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.75418638070411</v>
+        <v>25.80919143372647</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.588512426596147</v>
+        <v>2.055250831660556</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.45529066603848</v>
+        <v>8.258168960332453</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.90948728872328</v>
+        <v>9.672556540557807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54390662024748</v>
+        <v>22.61685046810543</v>
       </c>
       <c r="C7">
-        <v>10.32186212384934</v>
+        <v>17.14030896306545</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.04757367285683</v>
+        <v>26.49335649015092</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.587807989769907</v>
+        <v>2.053306595639723</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.3952566604473</v>
+        <v>8.087989431373947</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.86234246787765</v>
+        <v>9.645136656397836</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.6654632863702</v>
+        <v>24.7798185956392</v>
       </c>
       <c r="C8">
-        <v>11.16770589463535</v>
+        <v>18.70871173219163</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.28771535500158</v>
+        <v>29.3724329758113</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.584853164314834</v>
+        <v>2.044931336817902</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.14310517619997</v>
+        <v>7.359479037533263</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.67064055568737</v>
+        <v>9.594779363158713</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.63739350211652</v>
+        <v>28.5688643264957</v>
       </c>
       <c r="C9">
-        <v>12.64956017594646</v>
+        <v>21.471584142381</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.63158843625158</v>
+        <v>34.54196902040661</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.57960696882296</v>
+        <v>2.029147523628687</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.69427648299733</v>
+        <v>6.019797695052254</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.35457154223684</v>
+        <v>9.792908894217531</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.94292611747911</v>
+        <v>31.08237003970682</v>
       </c>
       <c r="C10">
-        <v>13.62804050919103</v>
+        <v>23.31353966964264</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.29044273602282</v>
+        <v>38.07831692901276</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.576082771683159</v>
+        <v>2.017840773310049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.39211588658997</v>
+        <v>5.10792660394607</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.15991968817342</v>
+        <v>10.33487222832095</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.50512727330458</v>
+        <v>32.16863844869976</v>
       </c>
       <c r="C11">
-        <v>14.04893390274913</v>
+        <v>24.11166205401521</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.00263295508407</v>
+        <v>39.63757995694384</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.574550359053559</v>
+        <v>2.012734443693296</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.26059960730766</v>
+        <v>4.717527353070161</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.07976187252135</v>
+        <v>10.87835610356402</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.71342606654253</v>
+        <v>32.57190507341106</v>
       </c>
       <c r="C12">
-        <v>14.20481596942529</v>
+        <v>24.40827046586293</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.26625698460389</v>
+        <v>40.22162393907454</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.573980184237847</v>
+        <v>2.01080374129797</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.21164840560022</v>
+        <v>4.574546700516652</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.05063490433985</v>
+        <v>11.08554479685243</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.66877002364902</v>
+        <v>32.48541138473532</v>
       </c>
       <c r="C13">
-        <v>14.1713999134305</v>
+        <v>24.34463885945662</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.20975011417035</v>
+        <v>40.09611286342371</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.574102532584222</v>
+        <v>2.011219462499551</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.22215310928772</v>
+        <v>4.605094656264033</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.05685301384862</v>
+        <v>11.0408604591852</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.52235639932158</v>
+        <v>32.20197652417696</v>
       </c>
       <c r="C14">
-        <v>14.06182866356835</v>
+        <v>24.13617627212177</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.02444285614956</v>
+        <v>39.68575386334672</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.574503248013778</v>
+        <v>2.012575559200043</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.25655531917401</v>
+        <v>4.705656583816471</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.07734086846188</v>
+        <v>10.89537357224834</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43207454850534</v>
+        <v>32.02731661198654</v>
       </c>
       <c r="C15">
-        <v>13.99425672905252</v>
+        <v>24.00775785857237</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.91014773613494</v>
+        <v>39.43358388951386</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.574750013518217</v>
+        <v>2.013406516262057</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.27773843324543</v>
+        <v>4.767938325199866</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.09005068522104</v>
+        <v>10.80644048703594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90554379007511</v>
+        <v>31.01024140737183</v>
       </c>
       <c r="C16">
-        <v>13.60004504165616</v>
+        <v>23.26058780657263</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.24304857140823</v>
+        <v>37.9754778535317</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.576184337327184</v>
+        <v>2.01817503405655</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.40083003788647</v>
+        <v>5.134030720968791</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.16532877267049</v>
+        <v>10.29954534291075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.57438709643368</v>
+        <v>30.37175660215856</v>
       </c>
       <c r="C17">
-        <v>13.35199021735866</v>
+        <v>22.79209600219549</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.82296192863376</v>
+        <v>37.06878033190824</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.577082330435755</v>
+        <v>2.021108272945881</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.47786165393236</v>
+        <v>5.365621697627558</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.21367290750535</v>
+        <v>10.03195984466551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.38093297655628</v>
+        <v>29.99912980399935</v>
       </c>
       <c r="C18">
-        <v>13.20703636654496</v>
+        <v>22.51887942463555</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.57734334985946</v>
+        <v>36.54257191173171</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.577605496318012</v>
+        <v>2.022799051875386</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.52272727904176</v>
+        <v>5.501013523032715</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.24226765903491</v>
+        <v>9.974448210645615</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.31492196514286</v>
+        <v>29.87203560404508</v>
       </c>
       <c r="C19">
-        <v>13.15756666726852</v>
+        <v>22.42572577705207</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.49349377146694</v>
+        <v>36.36357986032895</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.577783777642642</v>
+        <v>2.023372216959905</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.5380141160499</v>
+        <v>5.547200204055079</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.25208415274904</v>
+        <v>9.955808048348178</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.60994817440042</v>
+        <v>30.44028101704935</v>
       </c>
       <c r="C20">
-        <v>13.37863212318749</v>
+        <v>22.84235546373038</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.86809417261692</v>
+        <v>37.16578152228011</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.576986048268385</v>
+        <v>2.020795662521792</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.46960366498036</v>
+        <v>5.340734561009908</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.20844483921919</v>
+        <v>10.0430021791509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.56548657119015</v>
+        <v>32.28544632275489</v>
       </c>
       <c r="C21">
-        <v>14.09410752869517</v>
+        <v>24.19755852000482</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.07903647064006</v>
+        <v>39.80645435273185</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.574385274085989</v>
+        <v>2.012177181091736</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.24642747711277</v>
+        <v>4.675972917544526</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.07128962163519</v>
+        <v>10.93806857227152</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.16319505786531</v>
+        <v>33.44434940243625</v>
       </c>
       <c r="C22">
-        <v>14.54130052123812</v>
+        <v>25.05054491398014</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.83511032318818</v>
+        <v>41.49528807388604</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.57274445784505</v>
+        <v>2.006560389214373</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.10552897022255</v>
+        <v>4.271055512691876</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.98881273761024</v>
+        <v>11.54374529685856</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.84664789177977</v>
+        <v>32.83007382726918</v>
       </c>
       <c r="C23">
-        <v>14.30449729209777</v>
+        <v>24.59824612207285</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.43480236214343</v>
+        <v>40.59705630488001</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.573614818754262</v>
+        <v>2.009557593325473</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.18027617993392</v>
+        <v>4.483805266105248</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.03217001243691</v>
+        <v>11.21971673399945</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.59388056340996</v>
+        <v>30.40931843674607</v>
       </c>
       <c r="C24">
-        <v>13.36659461670327</v>
+        <v>22.81964523629805</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.84770267479086</v>
+        <v>37.12194270958433</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.577029555946285</v>
+        <v>2.020936979748279</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.47333529762623</v>
+        <v>5.351979126315983</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.21080595518124</v>
+        <v>10.03799474508234</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.12883122015734</v>
+        <v>27.59175466451503</v>
       </c>
       <c r="C25">
-        <v>12.26790570296586</v>
+        <v>20.75742587427543</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.98284373560391</v>
+        <v>33.19168830510543</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.580967930674202</v>
+        <v>2.03335870682887</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.81083458789333</v>
+        <v>6.37141727787833</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.4335590132769</v>
+        <v>9.703742656803369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.33507753578973</v>
+        <v>12.4959214996956</v>
       </c>
       <c r="C2">
-        <v>19.11244684788051</v>
+        <v>6.586681192552457</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11932066149643</v>
+        <v>6.785144327482335</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.042708761516451</v>
+        <v>33.48450521110681</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.710758167746814</v>
       </c>
       <c r="I2">
-        <v>7.167738466927316</v>
+        <v>4.409916653420389</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.94754094885805</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.60774222988321</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.60373753065623</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.17132017076979</v>
       </c>
       <c r="O2">
-        <v>9.599815479997613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.525034499674636</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.69022984561115</v>
+        <v>11.6816272476982</v>
       </c>
       <c r="C3">
-        <v>17.91773564095009</v>
+        <v>6.287422035244347</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.91631183935279</v>
+        <v>6.603430111520621</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.049205852416407</v>
+        <v>33.15624129542928</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.909343679570706</v>
       </c>
       <c r="I3">
-        <v>7.730247933636993</v>
+        <v>4.579031256799705</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.96186160375315</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.60987366788682</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.989688346585737</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.989840128302999</v>
       </c>
       <c r="O3">
-        <v>9.606743066686148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.143962402727993</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.62285326792498</v>
+        <v>11.17050453596256</v>
       </c>
       <c r="C4">
-        <v>17.14465142706776</v>
+        <v>6.098303280421615</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.501284283276</v>
+        <v>6.487878160424938</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.053283961544146</v>
+        <v>32.95701464024766</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.035591282925392</v>
       </c>
       <c r="I4">
-        <v>8.086010227849929</v>
+        <v>4.687095306641467</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.97215215597954</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.61196315918849</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.592907060287153</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.875613217764772</v>
       </c>
       <c r="O4">
-        <v>9.64485232411087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.902300839736178</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17339649655461</v>
+        <v>10.95356891298933</v>
       </c>
       <c r="C5">
-        <v>16.81968250810904</v>
+        <v>6.024411419393865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.90858862925111</v>
+        <v>6.437952092826547</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.05496948587285</v>
+        <v>32.8445981958447</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.088550552639987</v>
       </c>
       <c r="I5">
-        <v>8.233522806974033</v>
+        <v>4.734584546449916</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.97089193333592</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.60059481382029</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.427591636511554</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.828704588521419</v>
       </c>
       <c r="O5">
-        <v>9.668222373245637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.801818694872276</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09788814975183</v>
+        <v>10.91506535130271</v>
       </c>
       <c r="C6">
-        <v>16.76512260563671</v>
+        <v>6.017599989354717</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.80919143372647</v>
+        <v>6.427337608327793</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.055250831660556</v>
+        <v>32.78709211710958</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.097912494724211</v>
       </c>
       <c r="I6">
-        <v>8.258168960332453</v>
+        <v>4.745556471195622</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.96359789856636</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.58357494311374</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.401434342775758</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.821248563018468</v>
       </c>
       <c r="O6">
-        <v>9.672556540557807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.78480193001819</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.61685046810543</v>
+        <v>11.16208839340945</v>
       </c>
       <c r="C7">
-        <v>17.14030896306545</v>
+        <v>6.112218392521251</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.49335649015092</v>
+        <v>6.481095417421553</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.053306595639723</v>
+        <v>32.84977613684869</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.037646350908928</v>
       </c>
       <c r="I7">
-        <v>8.087989431373947</v>
+        <v>4.695731378636444</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.95277912629841</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.57054708683284</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.594956584610156</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.875999340853492</v>
       </c>
       <c r="O7">
-        <v>9.645136656397836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.900339279848495</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.7798185956392</v>
+        <v>12.21148328612821</v>
       </c>
       <c r="C8">
-        <v>18.70871173219163</v>
+        <v>6.503425644952304</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.3724329758113</v>
+        <v>6.715568628855767</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.044931336817902</v>
+        <v>33.23345382721052</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.780023169444776</v>
       </c>
       <c r="I8">
-        <v>7.359479037533263</v>
+        <v>4.477464884023911</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.92684268676215</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.55430107891485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.40142510528879</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.11069261270224</v>
       </c>
       <c r="O8">
-        <v>9.594779363158713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.394497993927331</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.5688643264957</v>
+        <v>14.09750025334099</v>
       </c>
       <c r="C9">
-        <v>21.471584142381</v>
+        <v>7.202682860576783</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.54196902040661</v>
+        <v>7.153525591483928</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.029147523628687</v>
+        <v>34.18892993669614</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.306086239824469</v>
       </c>
       <c r="I9">
-        <v>6.019797695052254</v>
+        <v>4.06929874632223</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.92251499158602</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.60190208319971</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.81791687223051</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.545320858598064</v>
       </c>
       <c r="O9">
-        <v>9.792908894217531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.29943438330083</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08237003970682</v>
+        <v>15.32888591351379</v>
       </c>
       <c r="C10">
-        <v>23.31353966964264</v>
+        <v>7.733214553256144</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.07831692901276</v>
+        <v>7.339431500032554</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.017840773310049</v>
+        <v>34.37669487436803</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.005301857304064</v>
       </c>
       <c r="I10">
-        <v>5.10792660394607</v>
+        <v>3.799944901375817</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.82853914627991</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.437341577414</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.77932534742708</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.743138442004285</v>
       </c>
       <c r="O10">
-        <v>10.33487222832095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.84548008767885</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.16863844869976</v>
+        <v>15.82627369275964</v>
       </c>
       <c r="C11">
-        <v>24.11166205401521</v>
+        <v>8.32563086354647</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.63757995694384</v>
+        <v>6.606068454823132</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.012734443693296</v>
+        <v>30.30237211290634</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.693572073464889</v>
       </c>
       <c r="I11">
-        <v>4.717527353070161</v>
+        <v>3.747928592041363</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.01423021759461</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.80078938085281</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.34359707447588</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.968100369595613</v>
       </c>
       <c r="O11">
-        <v>10.87835610356402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.44621962559759</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.57190507341106</v>
+        <v>16.00532359776134</v>
       </c>
       <c r="C12">
-        <v>24.40827046586293</v>
+        <v>8.722624247530527</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.22162393907454</v>
+        <v>6.226968704097667</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.01080374129797</v>
+        <v>27.11235612213036</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.831773801668134</v>
       </c>
       <c r="I12">
-        <v>4.574546700516652</v>
+        <v>3.738918857490994</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.42058773504758</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.65209421450127</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.62396448192675</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.347637392126774</v>
       </c>
       <c r="O12">
-        <v>11.08554479685243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.990873134100175</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.48541138473532</v>
+        <v>15.94930424326759</v>
       </c>
       <c r="C13">
-        <v>24.34463885945662</v>
+        <v>9.018274388960959</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.09611286342371</v>
+        <v>6.127719717633777</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.011219462499551</v>
+        <v>24.31884134817674</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.116877208277289</v>
       </c>
       <c r="I13">
-        <v>4.605094656264033</v>
+        <v>3.775762852165863</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.942012344007816</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.78120896362884</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.71602972777552</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.83348350582463</v>
       </c>
       <c r="O13">
-        <v>11.0408604591852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.454553156114555</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.20197652417696</v>
+        <v>15.80185099726203</v>
       </c>
       <c r="C14">
-        <v>24.13617627212177</v>
+        <v>9.189159371720317</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.68575386334672</v>
+        <v>6.233929819738394</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.012575559200043</v>
+        <v>22.6275168847363</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.061824758907973</v>
       </c>
       <c r="I14">
-        <v>4.705656583816471</v>
+        <v>3.82434172923239</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.671336528649228</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.33681028582497</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.69799653982145</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.557574862191055</v>
       </c>
       <c r="O14">
-        <v>10.89537357224834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.038077158332818</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.02731661198654</v>
+        <v>15.71294295994123</v>
       </c>
       <c r="C15">
-        <v>24.00775785857237</v>
+        <v>9.213200075494365</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.43358388951386</v>
+        <v>6.277163023500893</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>2.013406516262057</v>
+        <v>22.26993835235129</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.286691451163422</v>
       </c>
       <c r="I15">
-        <v>4.767938325199866</v>
+        <v>3.850575521140168</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.620774153588533</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.26445827017693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.65411155302252</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.503362441561793</v>
       </c>
       <c r="O15">
-        <v>10.80644048703594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.919046627707147</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.01024140737183</v>
+        <v>15.21621216474154</v>
       </c>
       <c r="C16">
-        <v>23.26058780657263</v>
+        <v>8.960761118554368</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.9754778535317</v>
+        <v>6.199133312290834</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.01817503405655</v>
+        <v>22.72158266983392</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.126085551604609</v>
       </c>
       <c r="I16">
-        <v>5.134030720968791</v>
+        <v>3.963842288967115</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.754339101825133</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.50466558000917</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.25182004610489</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.507387454806723</v>
       </c>
       <c r="O16">
-        <v>10.29954534291075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.773039679376247</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.37175660215856</v>
+        <v>14.9083562568066</v>
       </c>
       <c r="C17">
-        <v>22.79209600219549</v>
+        <v>8.667065037905569</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.06878033190824</v>
+        <v>6.051337073186615</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.021108272945881</v>
+        <v>23.8968180061875</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.477308573606444</v>
       </c>
       <c r="I17">
-        <v>5.365621697627558</v>
+        <v>4.025757028566909</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.990447331251968</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.89737487981489</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.94629695915858</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.641440023847077</v>
       </c>
       <c r="O17">
-        <v>10.03195984466551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.888348872402325</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.99912980399935</v>
+        <v>14.74054693160645</v>
       </c>
       <c r="C18">
-        <v>22.51887942463555</v>
+        <v>8.301642222037875</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.54257191173171</v>
+        <v>5.993879823408575</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.022799051875386</v>
+        <v>26.08734660209531</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.389408530861633</v>
       </c>
       <c r="I18">
-        <v>5.501013523032715</v>
+        <v>4.038386159534295</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.38838281797639</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.5938534280055</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.69315687407487</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.986152108100241</v>
       </c>
       <c r="O18">
-        <v>9.974448210645615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.243650772694274</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.87203560404508</v>
+        <v>14.69292288726619</v>
       </c>
       <c r="C19">
-        <v>22.42572577705207</v>
+        <v>7.955285048618707</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.36357986032895</v>
+        <v>6.260171581196379</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.023372216959905</v>
+        <v>29.03245431581033</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.187416485864934</v>
       </c>
       <c r="I19">
-        <v>5.547200204055079</v>
+        <v>4.021556181980221</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.91315810109444</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.58381071750035</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.51431248237078</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.570755688406725</v>
       </c>
       <c r="O19">
-        <v>9.955808048348178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.761971741493067</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.44028101704935</v>
+        <v>15.00062899728075</v>
       </c>
       <c r="C20">
-        <v>22.84235546373038</v>
+        <v>7.637424770879704</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.16578152228011</v>
+        <v>7.270060874543563</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.020795662521792</v>
+        <v>33.99983847797902</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.086616147673721</v>
       </c>
       <c r="I20">
-        <v>5.340734561009908</v>
+        <v>3.895679898986203</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.79123644544568</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.3499210280517</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.54507761415876</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.690146744826821</v>
       </c>
       <c r="O20">
-        <v>10.0430021791509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.69970761208504</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.28544632275489</v>
+        <v>15.90766703901758</v>
       </c>
       <c r="C21">
-        <v>24.19755852000482</v>
+        <v>7.96876519067677</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.80645435273185</v>
+        <v>7.585839687418618</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.012177181091736</v>
+        <v>34.95720681982956</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.819110790043389</v>
       </c>
       <c r="I21">
-        <v>4.675972917544526</v>
+        <v>3.67952948082546</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.87398191527821</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.53819190176747</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.22369257170815</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.999839342722558</v>
       </c>
       <c r="O21">
-        <v>10.93806857227152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.2191285027277</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.44434940243625</v>
+        <v>16.47803246227958</v>
       </c>
       <c r="C22">
-        <v>25.05054491398014</v>
+        <v>8.184611667239535</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.49528807388604</v>
+        <v>7.736852620739436</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.006560389214373</v>
+        <v>35.46396983803221</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.659461079641216</v>
       </c>
       <c r="I22">
-        <v>4.271055512691876</v>
+        <v>3.534168515552081</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.90779502540031</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.61905794675903</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.65389616008578</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.14322075108267</v>
       </c>
       <c r="O22">
-        <v>11.54374529685856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.51211504618069</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.83007382726918</v>
+        <v>16.18125797765564</v>
       </c>
       <c r="C23">
-        <v>24.59824612207285</v>
+        <v>8.055577637454755</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.59705630488001</v>
+        <v>7.662586916029553</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.009557593325473</v>
+        <v>35.30620952725822</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.743134567667591</v>
       </c>
       <c r="I23">
-        <v>4.483805266105248</v>
+        <v>3.601244391313626</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.91121225174506</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.62186931201112</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.42208169384016</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.065866700973331</v>
       </c>
       <c r="O23">
-        <v>11.21971673399945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.35725220079059</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.40931843674607</v>
+        <v>14.99628407826887</v>
       </c>
       <c r="C24">
-        <v>22.81964523629805</v>
+        <v>7.579194699558838</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.12194270958433</v>
+        <v>7.364657290208128</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.020936979748279</v>
+        <v>34.54001185636542</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.068256096262191</v>
       </c>
       <c r="I24">
-        <v>5.351979126315983</v>
+        <v>3.878092301832376</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.89449900089508</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.56392888731329</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.51435135906942</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.767813083726868</v>
       </c>
       <c r="O24">
-        <v>10.03799474508234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.75146047401183</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59175466451503</v>
+        <v>13.6043910867673</v>
       </c>
       <c r="C25">
-        <v>20.75742587427543</v>
+        <v>7.042274783580618</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.19168830510543</v>
+        <v>7.028561872912762</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.03335870682887</v>
+        <v>33.74627970829897</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.432949668930812</v>
       </c>
       <c r="I25">
-        <v>6.37141727787833</v>
+        <v>4.190518327287975</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.88827708884743</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.51575079698775</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.45840949672734</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.432313914144146</v>
       </c>
       <c r="O25">
-        <v>9.703742656803369</v>
+        <v>10.06107290766567</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.4959214996956</v>
+        <v>12.50463296958232</v>
       </c>
       <c r="C2">
-        <v>6.586681192552457</v>
+        <v>6.554575362449104</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.785144327482335</v>
+        <v>6.735930610602842</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>33.48450521110681</v>
+        <v>30.19284335656298</v>
       </c>
       <c r="H2">
-        <v>3.710758167746814</v>
+        <v>3.460726371448422</v>
       </c>
       <c r="I2">
-        <v>4.409916653420389</v>
+        <v>4.105806128485797</v>
       </c>
       <c r="J2">
-        <v>11.94754094885805</v>
+        <v>11.26180321690034</v>
       </c>
       <c r="K2">
-        <v>19.60774222988321</v>
+        <v>18.04573790574345</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.910718882431</v>
       </c>
       <c r="M2">
-        <v>10.60373753065623</v>
+        <v>12.76055835796638</v>
       </c>
       <c r="N2">
-        <v>6.17132017076979</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.525034499674636</v>
+        <v>10.78646487681049</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.383009034685222</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.482210113500408</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6816272476982</v>
+        <v>11.70753585491214</v>
       </c>
       <c r="C3">
-        <v>6.287422035244347</v>
+        <v>6.186727688421997</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.603430111520621</v>
+        <v>6.582836248006648</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>33.15624129542928</v>
+        <v>30.22409959964911</v>
       </c>
       <c r="H3">
-        <v>3.909343679570706</v>
+        <v>3.640946185833618</v>
       </c>
       <c r="I3">
-        <v>4.579031256799705</v>
+        <v>4.252454697441841</v>
       </c>
       <c r="J3">
-        <v>11.96186160375315</v>
+        <v>11.28350600203761</v>
       </c>
       <c r="K3">
-        <v>19.60987366788682</v>
+        <v>18.15346567047806</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.05254746881288</v>
       </c>
       <c r="M3">
-        <v>9.989688346585737</v>
+        <v>12.81906515324083</v>
       </c>
       <c r="N3">
-        <v>5.989840128302999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.143962402727993</v>
+        <v>10.16736211513465</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.211091980210564</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.09810858817568</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17050453596256</v>
+        <v>11.18803315350171</v>
       </c>
       <c r="C4">
-        <v>6.098303280421615</v>
+        <v>5.953213152368308</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.487878160424938</v>
+        <v>6.485551541778468</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>32.95701464024766</v>
+        <v>30.24967903837772</v>
       </c>
       <c r="H4">
-        <v>4.035591282925392</v>
+        <v>3.755580456357594</v>
       </c>
       <c r="I4">
-        <v>4.687095306641467</v>
+        <v>4.346463024401674</v>
       </c>
       <c r="J4">
-        <v>11.97215215597954</v>
+        <v>11.2966513247232</v>
       </c>
       <c r="K4">
-        <v>19.61196315918849</v>
+        <v>18.21998692173839</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.13877650410703</v>
       </c>
       <c r="M4">
-        <v>9.592907060287153</v>
+        <v>12.86808618915354</v>
       </c>
       <c r="N4">
-        <v>5.875613217764772</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.902300839736178</v>
+        <v>9.767504407643189</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.103305337466145</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.854176495418281</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.95356891298933</v>
+        <v>10.967105611699</v>
       </c>
       <c r="C5">
-        <v>6.024411419393865</v>
+        <v>5.861024573028958</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.437952092826547</v>
+        <v>6.443538925503344</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>32.8445981958447</v>
+        <v>30.23505081609598</v>
       </c>
       <c r="H5">
-        <v>4.088550552639987</v>
+        <v>3.803682808338891</v>
       </c>
       <c r="I5">
-        <v>4.734584546449916</v>
+        <v>4.388519125112221</v>
       </c>
       <c r="J5">
-        <v>11.97089193333592</v>
+        <v>11.29697798979476</v>
       </c>
       <c r="K5">
-        <v>19.60059481382029</v>
+        <v>18.23712501484905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.16421553308509</v>
       </c>
       <c r="M5">
-        <v>9.427591636511554</v>
+        <v>12.88556329038255</v>
       </c>
       <c r="N5">
-        <v>5.828704588521419</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.801818694872276</v>
+        <v>9.600793646159758</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.059099205787843</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.752689601054273</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.91506535130271</v>
+        <v>10.92794341969077</v>
       </c>
       <c r="C6">
-        <v>6.017599989354717</v>
+        <v>5.85155699012798</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.427337608327793</v>
+        <v>6.43461605168109</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>32.78709211710958</v>
+        <v>30.20031948117733</v>
       </c>
       <c r="H6">
-        <v>4.097912494724211</v>
+        <v>3.812187541253678</v>
       </c>
       <c r="I6">
-        <v>4.745556471195622</v>
+        <v>4.399065313638379</v>
       </c>
       <c r="J6">
-        <v>11.96359789856636</v>
+        <v>11.29094709686533</v>
       </c>
       <c r="K6">
-        <v>19.58357494311374</v>
+        <v>18.22771201118864</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.15686474473288</v>
       </c>
       <c r="M6">
-        <v>9.401434342775758</v>
+        <v>12.881626385877</v>
       </c>
       <c r="N6">
-        <v>5.821248563018468</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.78480193001819</v>
+        <v>9.574205308639963</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.052019986352686</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.735528890878177</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.16208839340945</v>
+        <v>11.18161933511003</v>
       </c>
       <c r="C7">
-        <v>6.112218392521251</v>
+        <v>5.959833646218112</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.481095417421553</v>
+        <v>6.480825384346112</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.84977613684869</v>
+        <v>30.19091114861181</v>
       </c>
       <c r="H7">
-        <v>4.037646350908928</v>
+        <v>3.758106288558313</v>
       </c>
       <c r="I7">
-        <v>4.695731378636444</v>
+        <v>4.356983821716554</v>
       </c>
       <c r="J7">
-        <v>11.95277912629841</v>
+        <v>11.24143466623431</v>
       </c>
       <c r="K7">
-        <v>19.57054708683284</v>
+        <v>18.17063823105015</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.09327438926183</v>
       </c>
       <c r="M7">
-        <v>9.594956584610156</v>
+        <v>12.83890023423244</v>
       </c>
       <c r="N7">
-        <v>5.875999340853492</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.900339279848495</v>
+        <v>9.766530247143498</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.102522332641254</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.85263058713776</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.21148328612821</v>
+        <v>12.23535997298929</v>
       </c>
       <c r="C8">
-        <v>6.503425644952304</v>
+        <v>6.423925128527372</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.715568628855767</v>
+        <v>6.680588540208262</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.23345382721052</v>
+        <v>30.18747238035252</v>
       </c>
       <c r="H8">
-        <v>3.780023169444776</v>
+        <v>3.525591848711206</v>
       </c>
       <c r="I8">
-        <v>4.477464884023911</v>
+        <v>4.16941182428044</v>
       </c>
       <c r="J8">
-        <v>11.92684268676215</v>
+        <v>11.12274229441152</v>
       </c>
       <c r="K8">
-        <v>19.55430107891485</v>
+        <v>17.98704312066372</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.87676709581559</v>
       </c>
       <c r="M8">
-        <v>10.40142510528879</v>
+        <v>12.71529821957806</v>
       </c>
       <c r="N8">
-        <v>6.11069261270224</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.394497993927331</v>
+        <v>10.57415976440639</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.322183634400592</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.351882820471323</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09750025334099</v>
+        <v>14.06525579600968</v>
       </c>
       <c r="C9">
-        <v>7.202682860576783</v>
+        <v>7.275523255182985</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.153525591483928</v>
+        <v>7.050916952893109</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>34.18892993669614</v>
+        <v>30.28344141436234</v>
       </c>
       <c r="H9">
-        <v>3.306086239824469</v>
+        <v>3.096181255165665</v>
       </c>
       <c r="I9">
-        <v>4.06929874632223</v>
+        <v>3.814949705110311</v>
       </c>
       <c r="J9">
-        <v>11.92251499158602</v>
+        <v>11.05456156099696</v>
       </c>
       <c r="K9">
-        <v>19.60190208319971</v>
+        <v>17.74709454944852</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.549050188278</v>
       </c>
       <c r="M9">
-        <v>11.81791687223051</v>
+        <v>12.65201042418746</v>
       </c>
       <c r="N9">
-        <v>6.545320858598064</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.29943438330083</v>
+        <v>12.0024249474788</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.735753515992416</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.26213632335309</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32888591351379</v>
+        <v>15.27358626015735</v>
       </c>
       <c r="C10">
-        <v>7.733214553256144</v>
+        <v>7.861464773921353</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.339431500032554</v>
+        <v>7.206596625895168</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>34.37669487436803</v>
+        <v>30.17035247210085</v>
       </c>
       <c r="H10">
-        <v>3.005301857304064</v>
+        <v>2.829049102578032</v>
       </c>
       <c r="I10">
-        <v>3.799944901375817</v>
+        <v>3.58679447821642</v>
       </c>
       <c r="J10">
-        <v>11.82853914627991</v>
+        <v>10.72909680091865</v>
       </c>
       <c r="K10">
-        <v>19.437341577414</v>
+        <v>17.34307762402144</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.13518044183452</v>
       </c>
       <c r="M10">
-        <v>12.77932534742708</v>
+        <v>12.48940818018517</v>
       </c>
       <c r="N10">
-        <v>6.743138442004285</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.84548008767885</v>
+        <v>12.95722957197326</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.915589615885337</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81191062787759</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82627369275964</v>
+        <v>15.81356211273944</v>
       </c>
       <c r="C11">
-        <v>8.32563086354647</v>
+        <v>8.340908514017013</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.606068454823132</v>
+        <v>6.543102207130477</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>30.30237211290634</v>
+        <v>27.19250506627625</v>
       </c>
       <c r="H11">
-        <v>3.693572073464889</v>
+        <v>3.559976991804693</v>
       </c>
       <c r="I11">
-        <v>3.747928592041363</v>
+        <v>3.550884867709373</v>
       </c>
       <c r="J11">
-        <v>11.01423021759461</v>
+        <v>9.819472653508488</v>
       </c>
       <c r="K11">
-        <v>17.80078938085281</v>
+        <v>15.97619656127091</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.12447865100547</v>
       </c>
       <c r="M11">
-        <v>13.34359707447588</v>
+        <v>11.45541805346588</v>
       </c>
       <c r="N11">
-        <v>5.968100369595613</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.44621962559759</v>
+        <v>13.47192293958187</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.123176683497489</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.41893031088707</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.00532359776134</v>
+        <v>16.02742146488819</v>
       </c>
       <c r="C12">
-        <v>8.722624247530527</v>
+        <v>8.636381133002397</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.226968704097667</v>
+        <v>6.207329717470758</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.11235612213036</v>
+        <v>24.78596258826232</v>
       </c>
       <c r="H12">
-        <v>4.831773801668134</v>
+        <v>4.730382619570129</v>
       </c>
       <c r="I12">
-        <v>3.738918857490994</v>
+        <v>3.543835919093061</v>
       </c>
       <c r="J12">
-        <v>10.42058773504758</v>
+        <v>9.385391596881867</v>
       </c>
       <c r="K12">
-        <v>16.65209421450127</v>
+        <v>15.15037749593928</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.56830721183014</v>
       </c>
       <c r="M12">
-        <v>13.62396448192675</v>
+        <v>10.77414009874544</v>
       </c>
       <c r="N12">
-        <v>5.347637392126774</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.990873134100175</v>
+        <v>13.71767744464038</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.496634675040597</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.967206952965807</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.94930424326759</v>
+        <v>16.00008701787608</v>
       </c>
       <c r="C13">
-        <v>9.018274388960959</v>
+        <v>8.855005687150689</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.127719717633777</v>
+        <v>6.135134636653179</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>24.31884134817674</v>
+        <v>22.53693270597922</v>
       </c>
       <c r="H13">
-        <v>6.116877208277289</v>
+        <v>6.032498390138575</v>
       </c>
       <c r="I13">
-        <v>3.775762852165863</v>
+        <v>3.573225773176462</v>
       </c>
       <c r="J13">
-        <v>9.942012344007816</v>
+        <v>9.208894038388838</v>
       </c>
       <c r="K13">
-        <v>15.78120896362884</v>
+        <v>14.65014731177343</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.25818661881592</v>
       </c>
       <c r="M13">
-        <v>13.71602972777552</v>
+        <v>10.32285002885025</v>
       </c>
       <c r="N13">
-        <v>4.83348350582463</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.454553156114555</v>
+        <v>13.78766863788245</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.986168308417684</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.431943188123268</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80185099726203</v>
+        <v>15.8705496712441</v>
       </c>
       <c r="C14">
-        <v>9.189159371720317</v>
+        <v>8.981975075575974</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.233929819738394</v>
+        <v>6.252355800604249</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>22.6275168847363</v>
+        <v>21.12003740336265</v>
       </c>
       <c r="H14">
-        <v>7.061824758907973</v>
+        <v>6.984312606559534</v>
       </c>
       <c r="I14">
-        <v>3.82434172923239</v>
+        <v>3.613053382313065</v>
       </c>
       <c r="J14">
-        <v>9.671336528649228</v>
+        <v>9.15896270234863</v>
       </c>
       <c r="K14">
-        <v>15.33681028582497</v>
+        <v>14.44640236404258</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.13830303163874</v>
       </c>
       <c r="M14">
-        <v>13.69799653982145</v>
+        <v>10.12349005352598</v>
       </c>
       <c r="N14">
-        <v>4.557574862191055</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.038077158332818</v>
+        <v>13.75910730401842</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.716530555268142</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.014889295417937</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.71294295994123</v>
+        <v>15.78524918862902</v>
       </c>
       <c r="C15">
-        <v>9.213200075494365</v>
+        <v>9.001174907394551</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.277163023500893</v>
+        <v>6.299151692603229</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>22.26993835235129</v>
+        <v>20.80683029065487</v>
       </c>
       <c r="H15">
-        <v>7.286691451163422</v>
+        <v>7.209472327596075</v>
       </c>
       <c r="I15">
-        <v>3.850575521140168</v>
+        <v>3.635735944796745</v>
       </c>
       <c r="J15">
-        <v>9.620774153588533</v>
+        <v>9.167493284236688</v>
       </c>
       <c r="K15">
-        <v>15.26445827017693</v>
+        <v>14.43263131448394</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.12842102790129</v>
       </c>
       <c r="M15">
-        <v>13.65411155302252</v>
+        <v>10.10615205370378</v>
       </c>
       <c r="N15">
-        <v>4.503362441561793</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.919046627707147</v>
+        <v>13.71492363247588</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.665226677350034</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.895174397872445</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21621216474154</v>
+        <v>15.28093986861792</v>
       </c>
       <c r="C16">
-        <v>8.960761118554368</v>
+        <v>8.806270096816114</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.199133312290834</v>
+        <v>6.241525050583446</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>22.72158266983392</v>
+        <v>21.13111143114023</v>
       </c>
       <c r="H16">
-        <v>7.126085551604609</v>
+        <v>7.036206448931928</v>
       </c>
       <c r="I16">
-        <v>3.963842288967115</v>
+        <v>3.729524044510987</v>
       </c>
       <c r="J16">
-        <v>9.754339101825133</v>
+        <v>9.397091377246856</v>
       </c>
       <c r="K16">
-        <v>15.50466558000917</v>
+        <v>14.71678429284701</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.27790431960892</v>
       </c>
       <c r="M16">
-        <v>13.25182004610489</v>
+        <v>10.35357201646626</v>
       </c>
       <c r="N16">
-        <v>4.507387454806723</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.773039679376247</v>
+        <v>13.33464383028</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.6828679739355</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.744405698147734</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9083562568066</v>
+        <v>14.95967108925858</v>
       </c>
       <c r="C17">
-        <v>8.667065037905569</v>
+        <v>8.56943581349605</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.051337073186615</v>
+        <v>6.099965667903973</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>23.8968180061875</v>
+        <v>22.0737477918235</v>
       </c>
       <c r="H17">
-        <v>6.477308573606444</v>
+        <v>6.371815067879015</v>
       </c>
       <c r="I17">
-        <v>4.025757028566909</v>
+        <v>3.78176566309474</v>
       </c>
       <c r="J17">
-        <v>9.990447331251968</v>
+        <v>9.640123440700037</v>
       </c>
       <c r="K17">
-        <v>15.89737487981489</v>
+        <v>15.04851433684617</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.48589333483656</v>
       </c>
       <c r="M17">
-        <v>12.94629695915858</v>
+        <v>10.63196307621054</v>
       </c>
       <c r="N17">
-        <v>4.641440023847077</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.888348872402325</v>
+        <v>13.04931792154154</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.824103128301472</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.85696090559701</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.74054693160645</v>
+        <v>14.76800555596073</v>
       </c>
       <c r="C18">
-        <v>8.301642222037875</v>
+        <v>8.27732026591613</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.993879823408575</v>
+        <v>6.025749066922256</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>26.08734660209531</v>
+        <v>23.78418566044223</v>
       </c>
       <c r="H18">
-        <v>5.389408530861633</v>
+        <v>5.260315717656681</v>
       </c>
       <c r="I18">
-        <v>4.038386159534295</v>
+        <v>3.790317451162064</v>
       </c>
       <c r="J18">
-        <v>10.38838281797639</v>
+        <v>9.970855066021866</v>
       </c>
       <c r="K18">
-        <v>16.5938534280055</v>
+        <v>15.56488766520385</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.85235582812139</v>
       </c>
       <c r="M18">
-        <v>12.69315687407487</v>
+        <v>11.04228457278821</v>
       </c>
       <c r="N18">
-        <v>4.986152108100241</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.243650772694274</v>
+        <v>12.82096986313933</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.171650852161951</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.210427595487765</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.69292288726619</v>
+        <v>14.68976933543185</v>
       </c>
       <c r="C19">
-        <v>7.955285048618707</v>
+        <v>8.007464487063526</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.260171581196379</v>
+        <v>6.242929958152961</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>29.03245431581033</v>
+        <v>26.03465841692262</v>
       </c>
       <c r="H19">
-        <v>4.187416485864934</v>
+        <v>4.025519259460739</v>
       </c>
       <c r="I19">
-        <v>4.021556181980221</v>
+        <v>3.778025605893118</v>
       </c>
       <c r="J19">
-        <v>10.91315810109444</v>
+        <v>10.36887886287726</v>
       </c>
       <c r="K19">
-        <v>17.58381071750035</v>
+        <v>16.26143781857698</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.37053057396914</v>
       </c>
       <c r="M19">
-        <v>12.51431248237078</v>
+        <v>11.58221120308172</v>
       </c>
       <c r="N19">
-        <v>5.570755688406725</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.761971741493067</v>
+        <v>12.66850458282164</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.755812055232588</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.727496654809658</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00062899728075</v>
+        <v>14.94778201029296</v>
       </c>
       <c r="C20">
-        <v>7.637424770879704</v>
+        <v>7.777230894001972</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.270060874543563</v>
+        <v>7.144765364269897</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>33.99983847797902</v>
+        <v>29.81409811812975</v>
       </c>
       <c r="H20">
-        <v>3.086616147673721</v>
+        <v>2.899301171383863</v>
       </c>
       <c r="I20">
-        <v>3.895679898986203</v>
+        <v>3.674364108532973</v>
       </c>
       <c r="J20">
-        <v>11.79123644544568</v>
+        <v>10.89151548348685</v>
       </c>
       <c r="K20">
-        <v>19.3499210280517</v>
+        <v>17.40227791462376</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.20715728118734</v>
       </c>
       <c r="M20">
-        <v>12.54507761415876</v>
+        <v>12.49343759534832</v>
       </c>
       <c r="N20">
-        <v>6.690146744826821</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.69970761208504</v>
+        <v>12.73021618636703</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.869589697800262</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.66459348277449</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.90766703901758</v>
+        <v>15.85848905548369</v>
       </c>
       <c r="C21">
-        <v>7.96876519067677</v>
+        <v>8.036406015219059</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.585839687418618</v>
+        <v>7.442585380951641</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>34.95720681982956</v>
+        <v>30.9743709415008</v>
       </c>
       <c r="H21">
-        <v>2.819110790043389</v>
+        <v>2.66712737682185</v>
       </c>
       <c r="I21">
-        <v>3.67952948082546</v>
+        <v>3.50009718982105</v>
       </c>
       <c r="J21">
-        <v>11.87398191527821</v>
+        <v>10.15174846460187</v>
       </c>
       <c r="K21">
-        <v>19.53819190176747</v>
+        <v>17.03587694657927</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.86111771658387</v>
       </c>
       <c r="M21">
-        <v>13.22369257170815</v>
+        <v>12.33130983116209</v>
       </c>
       <c r="N21">
-        <v>6.999839342722558</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.2191285027277</v>
+        <v>13.37391226914266</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.151843976899403</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.19047181048691</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.47803246227958</v>
+        <v>16.4346717676989</v>
       </c>
       <c r="C22">
-        <v>8.184611667239535</v>
+        <v>8.196757872576464</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.736852620739436</v>
+        <v>7.589595757686276</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>35.46396983803221</v>
+        <v>31.7378300199983</v>
       </c>
       <c r="H22">
-        <v>2.659461079641216</v>
+        <v>2.529933711674452</v>
       </c>
       <c r="I22">
-        <v>3.534168515552081</v>
+        <v>3.379172098294699</v>
       </c>
       <c r="J22">
-        <v>11.90779502540031</v>
+        <v>9.690858624446355</v>
       </c>
       <c r="K22">
-        <v>19.61905794675903</v>
+        <v>16.75008082604402</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.61083029033056</v>
       </c>
       <c r="M22">
-        <v>13.65389616008578</v>
+        <v>12.19147529031602</v>
       </c>
       <c r="N22">
-        <v>7.14322075108267</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.51211504618069</v>
+        <v>13.77903523187141</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.277264356945812</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.48744425338264</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18125797765564</v>
+        <v>16.13035714211506</v>
       </c>
       <c r="C23">
-        <v>8.055577637454755</v>
+        <v>8.11290161826777</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.662586916029553</v>
+        <v>7.513339132408886</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>35.30620952725822</v>
+        <v>31.3360768761863</v>
       </c>
       <c r="H23">
-        <v>2.743134567667591</v>
+        <v>2.600749954425114</v>
       </c>
       <c r="I23">
-        <v>3.601244391313626</v>
+        <v>3.430309097464455</v>
       </c>
       <c r="J23">
-        <v>11.91121225174506</v>
+        <v>10.01099089936063</v>
       </c>
       <c r="K23">
-        <v>19.62186931201112</v>
+        <v>16.97435618654256</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.7930664036277</v>
       </c>
       <c r="M23">
-        <v>13.42208169384016</v>
+        <v>12.32487891427783</v>
       </c>
       <c r="N23">
-        <v>7.065866700973331</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.35725220079059</v>
+        <v>13.56565678323294</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.211635218638825</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.32977770706775</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.99628407826887</v>
+        <v>14.93918586132126</v>
       </c>
       <c r="C24">
-        <v>7.579194699558838</v>
+        <v>7.722962829037345</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.364657290208128</v>
+        <v>7.230422458571112</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>34.54001185636542</v>
+        <v>30.24030278669543</v>
       </c>
       <c r="H24">
-        <v>3.068256096262191</v>
+        <v>2.881198604797972</v>
       </c>
       <c r="I24">
-        <v>3.878092301832376</v>
+        <v>3.65431710769106</v>
       </c>
       <c r="J24">
-        <v>11.89449900089508</v>
+        <v>10.97523737480865</v>
       </c>
       <c r="K24">
-        <v>19.56392888731329</v>
+        <v>17.56231304098435</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.32786439668297</v>
       </c>
       <c r="M24">
-        <v>12.51435135906942</v>
+        <v>12.61563699005088</v>
       </c>
       <c r="N24">
-        <v>6.767813083726868</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75146047401183</v>
+        <v>12.70293312955669</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.948042486618745</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.71596085165801</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.6043910867673</v>
+        <v>13.58516931369889</v>
       </c>
       <c r="C25">
-        <v>7.042274783580618</v>
+        <v>7.087623630709389</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.028561872912762</v>
+        <v>6.94388534234653</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>33.74627970829897</v>
+        <v>30.05518736920708</v>
       </c>
       <c r="H25">
-        <v>3.432949668930812</v>
+        <v>3.210222065089338</v>
       </c>
       <c r="I25">
-        <v>4.190518327287975</v>
+        <v>3.923366424509885</v>
       </c>
       <c r="J25">
-        <v>11.88827708884743</v>
+        <v>11.09828865951874</v>
       </c>
       <c r="K25">
-        <v>19.51575079698775</v>
+        <v>17.77701941100508</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.61085626885483</v>
       </c>
       <c r="M25">
-        <v>11.45840949672734</v>
+        <v>12.63262211893308</v>
       </c>
       <c r="N25">
-        <v>6.432313914144146</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.06107290766567</v>
+        <v>11.64204956711896</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.628902656625712</v>
       </c>
       <c r="Q25">
+        <v>10.02240715896698</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
